--- a/excel/booklist2018.xlsx
+++ b/excel/booklist2018.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ניקה שתיקה / דורית אורגד ; איורים - נורית צרפתי.,ניקה שתיקה / דורית אורגד ; מספרת - דורית אורגד.</t>
+          <t>ניקה שתיקה / דורית אורגד ; מספרת - דורית אורגד.,ניקה שתיקה / דורית אורגד ; איורים - נורית צרפתי.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170325940005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11356134100005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11356134100005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170325940005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-,אורגד, דורית, 1936- מחבר דובר$$Qאורגד, דורית, 1936-</t>
+          <t>אורגד, דורית, 1936- מחבר דובר$$Qאורגד, דורית, 1936-,אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23 עמודים ; 23 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,23 עמודים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ת"א [=תל אביב] : הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,ת"א [=תל אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew,Children's poetry, Hebrew</t>
+          <t>Children's poetry, Hebrew,Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19920101,20050101</t>
+          <t>20050101,19920101</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>האגדה על השיח הקטן- ערבית [בהמתנה להפקדת חובה] / אסנת ישפה גזי ; תרגום: בשארה מרג'יה.,האגדה על השיח הקטן / ספרה וציירה אסנת ישפה.</t>
+          <t>האגדה על השיח הקטן / ספרה וציירה אסנת ישפה.,האגדה על השיח הקטן- ערבית [בהמתנה להפקדת חובה] / אסנת ישפה גזי ; תרגום: בשארה מרג'יה.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21201891740005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71248728780005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71248728780005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21201891740005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[ישראל] : זמורה-ביתן - מוציאים לאור,תל אביב : זמורה-ביתן</t>
+          <t>תל אביב : זמורה-ביתן,[ישראל] : זמורה-ביתן - מוציאים לאור</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>heb,ara</t>
+          <t>ara,heb</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>990017793110205171,990037867660205171</t>
+          <t>990037867660205171,990017793110205171</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-,כהן-אסיף, שלומית, 1949- מחבר$$Qכהן-אסיף, שלומית, 1949-</t>
+          <t>כהן-אסיף, שלומית, 1949- מחבר$$Qכהן-אסיף, שלומית, 1949-,כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,31, [1] עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+          <t>31, [1] עמודים : איורים צבעוניים ; 21 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20060101,20130101</t>
+          <t>20130101,20060101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>שפיצר, אביה  (דובר)  $$Qשפיצר, אביה,געש, אלישבע, 1946-  $$Qגעש, אלישבע, 1946-</t>
+          <t>געש, אלישבע, 1946-  $$Qגעש, אלישבע, 1946-,שפיצר, אביה  (דובר)  $$Qשפיצר, אביה</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>מקמל-עתיר, נאוה, 1964- מחבר$$Qמקמל-עתיר, נאוה, 1964-,מקמל-עתיר, נאוה, 1964-$$Qמקמל-עתיר, נאוה, 1964-</t>
+          <t>מקמל-עתיר, נאוה, 1964-$$Qמקמל-עתיר, נאוה, 1964-,מקמל-עתיר, נאוה, 1964- מחבר$$Qמקמל-עתיר, נאוה, 1964-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,34, [2] עמודים : איורים צבעוניים ; 22 X 28 ס"מ.</t>
+          <t>34, [2] עמודים : איורים צבעוניים ; 22 X 28 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20180101,20000101</t>
+          <t>20000101,20180101</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>קיפניס, לוין, 1894-1990 מחבר,קיפניס, לוין, 1894-1990$$Qקיפניס, לוין, 1894-1990</t>
+          <t>קיפניס, לוין, 1894-1990$$Qקיפניס, לוין, 1894-1990,קיפניס, לוין, 1894-1990 מחבר</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19120717,19900101</t>
+          <t>19900101,19120717</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>איל, אורה, 1946-2011  (מאייר)  $$Qאיל, אורה, 1946-2011,أيال، أورة  $$Qأيال، أورة</t>
+          <t>أيال، أورة  $$Qأيال، أورة,איל, אורה, 1946-2011  (מאייר)  $$Qאיל, אורה, 1946-2011</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>heb,ara</t>
+          <t>ara,heb</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20060101,20080101</t>
+          <t>20080101,20060101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>מופסן, גי דה, 1850-1893 מחבר$$Qמופסן, גי דה, 1850-1893,ליצמן, טוביה$$Qליצמן, טוביה</t>
+          <t>ליצמן, טוביה$$Qליצמן, טוביה,מופסן, גי דה, 1850-1893 מחבר$$Qמופסן, גי דה, 1850-1893</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303598890005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE165748664</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE165748664,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303598890005171</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32 עמודים : איורים צבעוניים ; 22 X 30 ס"מ.,32 עמודים : איורים צבעוניים ; 30X22 ס"מ.</t>
+          <t>32 עמודים : איורים צבעוניים ; 30X22 ס"מ.,32 עמודים : איורים צבעוניים ; 22 X 30 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302712460005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304195640005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304195640005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302712460005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>95 עמודים : איורים צבעוניים ; 22 X 24 ס"מ.,כולל איור, כולל תצלום..</t>
+          <t>כולל איור, כולל תצלום..,95 עמודים : איורים צבעוניים ; 22 X 24 ס"מ.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>book,sheet</t>
+          <t>sheet,book</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19970726,20130101</t>
+          <t>20130101,19970726</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camil,Baltazar 1902-1977,עמית, עפרה, 1966-  $$Qעמית, עפרה, 1966-</t>
+          <t>עמית, עפרה, 1966-  $$Qעמית, עפרה, 1966-,Camil,Baltazar 1902-1977</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE8593349,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE27670393</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE27670393,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE8593349</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ברג, ביורן, 1923-2008  $$Qברג, ביורן, 1923-2008,שלמון, תמר  $$Qשלמון, תמר</t>
+          <t>שלמון, תמר  $$Qשלמון, תמר,ברג, ביורן, 1923-2008  $$Qברג, ביורן, 1923-2008</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>תל אביב : עם עובד,[תל אביב] : עם עובד</t>
+          <t>[תל אביב] : עם עובד,תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2785,7 +2785,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; צייר יוסי אבולעפיה.,עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; ציר: יוסי אבולעפיה.</t>
+          <t>עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; ציר: יוסי אבולעפיה.,עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; צייר יוסי אבולעפיה.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>25 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.,[11] דפים : איורים (חלקם צבעוניים) ; 23 ס"מ.</t>
+          <t>[11] דפים : איורים (חלקם צבעוניים) ; 23 ס"מ.,25 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ירושלים : כתר ספרים,(ירושלים : כתר</t>
+          <t>(ירושלים : כתר,ירושלים : כתר ספרים</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>990020255140205171,990038198240205171</t>
+          <t>990038198240205171,990020255140205171</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>(תל-אביב : רשפים,מושב בן שמן : מודן</t>
+          <t>מושב בן שמן : מודן,(תל-אביב : רשפים</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19774202,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304062430005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304062430005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19774202</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268231620005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170285720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170285720005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268231620005171</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew,Children's stories, Hebrew -- 21st century</t>
+          <t>Children's stories, Hebrew -- 21st century,Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>אופק, אוריאל, 1926-1987 מחבר$$Qאופק, אוריאל, 1926-1987,אופק, אוריאל, 1926-1987$$Qאופק, אוריאל, 1926-1987</t>
+          <t>אופק, אוריאל, 1926-1987$$Qאופק, אוריאל, 1926-1987,אופק, אוריאל, 1926-1987 מחבר$$Qאופק, אוריאל, 1926-1987</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3253,6 +3253,16 @@
           <t>בן אלישע.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH71181330660005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71181330660005171</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>שער אריה, שמואל בן אלישע$$Qשער אריה, שמואל בן אלישע</t>
@@ -3263,9 +3273,19 @@
           <t>Cabala</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20040101</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990000874860205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -3316,7 +3336,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>גלברט-אבני, עפרה, 1947-$$Qגלברט-אבני, עפרה, 1947-,גלברט-אבני, עפרה, 1947- מחבר$$Qגלברט-אבני, עפרה, 1947-</t>
+          <t>גלברט-אבני, עפרה, 1947- מחבר$$Qגלברט-אבני, עפרה, 1947-,גלברט-אבני, עפרה, 1947-$$Qגלברט-אבני, עפרה, 1947-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3331,7 +3351,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,187, [3] עמודים : איורים ; 21 ס"מ.</t>
+          <t>187, [3] עמודים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3601,27 +3621,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>שניר, לאה, 1945-  $$Qשניר, לאה, 1945-,בקר, נועה  (דובר)  $$Qבקר, נועה</t>
+          <t>בקר, נועה  (דובר)  $$Qבקר, נועה,שניר, לאה, 1945-  $$Qשניר, לאה, 1945-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>טפר, יונה, 1941-$$Qטפר, יונה, 1941-,טפר, יונה, 1941- מחבר$$Qטפר, יונה, 1941-</t>
+          <t>טפר, יונה, 1941- מחבר$$Qטפר, יונה, 1941-,טפר, יונה, 1941-$$Qטפר, יונה, 1941-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Children's stories, Hebrew -- 21st century; Children's literature, Israeli; Israel -- History -- War of Independence, 1948-1949 -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Children's literature, Israeli; Israel -- History -- War of Independence, 1948-1949 -- Juvenile fiction,Children's stories, Hebrew -- 21st century</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE80443375,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261397</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261397,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE80443375</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,201, [1] עמודים : איורים ; 22 ס"מ.</t>
+          <t>201, [1] עמודים : איורים ; 22 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3725,7 +3745,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11361353280005171,NNL_ALEPH21225042750005171</t>
+          <t>NNL_ALEPH21225042750005171,NNL_ALEPH11361353280005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3735,7 +3755,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-,כהן-אסיף, שלומית, 1949- מחבר$$Qכהן-אסיף, שלומית, 1949-</t>
+          <t>כהן-אסיף, שלומית, 1949- מחבר$$Qכהן-אסיף, שלומית, 1949-,כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3760,7 +3780,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>תל-אביב : ספרית פועלים,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל-אביב : ספרית פועלים</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3775,7 +3795,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3839,7 +3859,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21273184630005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375602720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375602720005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21273184630005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3879,7 +3899,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -4025,7 +4045,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>תל-אביב : עם עובד,[תל-אביב] : עם עובד</t>
+          <t>[תל-אביב] : עם עובד,תל-אביב : עם עובד</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4114,7 +4134,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21277795080005171,NNL_ALEPH11349298270005171</t>
+          <t>NNL_ALEPH11349298270005171,NNL_ALEPH21277795080005171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4124,7 +4144,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>מורג, אורה, 1943- מחבר דובר$$Qמורג, אורה, 1943-,מורג, אורה, 1943-$$Qמורג, אורה, 1943-</t>
+          <t>מורג, אורה, 1943-$$Qמורג, אורה, 1943-,מורג, אורה, 1943- מחבר דובר$$Qמורג, אורה, 1943-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4139,7 +4159,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>117 עמודים : איורים ; 23 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,117 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4149,7 +4169,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ירושלים : כתר,תל אביב : iCast</t>
+          <t>תל אביב : iCast,ירושלים : כתר</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4159,12 +4179,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>990039034040205171,990023758200205171</t>
+          <t>990023758200205171,990039034040205171</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4183,7 +4203,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד [=עמיר].,סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד.</t>
+          <t>סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד.,סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד [=עמיר].</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4352,7 +4372,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4374,12 +4394,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429205500005171,NNL_ALEPH21237542860005171</t>
+          <t>NNL_ALEPH21237542860005171,NNL_EPHEMERA11429205500005171</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429205500005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237542860005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237542860005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429205500005171</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4414,12 +4434,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>997001768540405171,990022881490205171</t>
+          <t>990022881490205171,997001768540405171</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>book,sheet</t>
+          <t>sheet,book</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4508,7 +4528,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21211700500005171,NNL_ALEPH21209240240005171</t>
+          <t>NNL_ALEPH21209240240005171,NNL_ALEPH21211700500005171</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4533,7 +4553,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20020101,20000101</t>
+          <t>20000101,20020101</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4778,7 +4798,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4790,7 +4810,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>לידיה מלכת ארץ ישראל / אורי אורלב; קריינות: טלי פולג.,לידיה מלכת ארץ ישראל / אורי אורלב ; ציורים - אבי כץ.</t>
+          <t>לידיה מלכת ארץ ישראל / אורי אורלב ; ציורים - אבי כץ.,לידיה מלכת ארץ ישראל / אורי אורלב; קריינות: טלי פולג.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4800,17 +4820,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21240626350005171,NNL_ALEPH71264113750005171</t>
+          <t>NNL_ALEPH71264113750005171,NNL_ALEPH21240626350005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21240626350005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71264113750005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71264113750005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21240626350005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022,אורלב, אורי, 1931-2022 מחבר$$Qאורלב, אורי, 1931-2022</t>
+          <t>אורלב, אורי, 1931-2022 מחבר$$Qאורלב, אורי, 1931-2022,אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4830,7 +4850,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ירושלים : כתר,תל אביב : iCast</t>
+          <t>תל אביב : iCast,ירושלים : כתר</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4845,7 +4865,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4939,7 +4959,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19920101,19950101</t>
+          <t>19950101,19920101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5127,7 +5147,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>קריאת הינשוף / קארל היאסן ; מאנגלית - לילית ברקת.,קריאת הינשוף / סהר עדס ; עורכת: יונית נעמן ; עורכת אחראית: לי ממן.</t>
+          <t>קריאת הינשוף / סהר עדס ; עורכת: יונית נעמן ; עורכת אחראית: לי ממן.,קריאת הינשוף / קארל היאסן ; מאנגלית - לילית ברקת.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5142,7 +5162,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21523941490005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239953230005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239953230005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21523941490005171</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5162,7 +5182,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>256 עמודים ; 21 ס"מ.,107 עמודים ; ס"מ</t>
+          <t>107 עמודים ; ס"מ,256 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5177,7 +5197,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>997012601826905171,990024868060205171</t>
+          <t>990024868060205171,997012601826905171</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -5355,7 +5375,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gal, Ana Maria  $$QGal, Ana Maria,Pressler, Mirjam  $$QPressler, Mirjam</t>
+          <t>Pressler, Mirjam  $$QPressler, Mirjam,Gal, Ana Maria  $$QGal, Ana Maria</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5422,12 +5442,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19790101,20040101</t>
+          <t>20040101,19790101</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>תל אביב : יזרעאל,תל אביב : משכל</t>
+          <t>תל אביב : משכל,תל אביב : יזרעאל</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5474,7 +5494,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ירושלים : כתר,תל אביב : iCast</t>
+          <t>תל אביב : iCast,ירושלים : כתר</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5484,7 +5504,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -5653,11 +5673,6 @@
           <t>Homeland in music; Love songs; Water -- Songs and music; Eretz Israel -- Songs and music</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE60571367</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Israel</t>
@@ -5682,7 +5697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>בן-עוזר, יובל  (מנצח)  $$Qבן-עוזר, יובל,Ekroni, Aviv  $$QEkroni, Aviv</t>
+          <t>Ekroni, Aviv  $$QEkroni, Aviv,בן-עוזר, יובל  (מנצח)  $$Qבן-עוזר, יובל</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5781,7 +5796,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL11415147180005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230464070005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230464070005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL11415147180005171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5826,7 +5841,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5866,9 +5881,9 @@
           <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE10513858</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>בית דגן : משרד החקלאות ופיתוח הכפר - היחידה לחקר שווקים</t>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>כר' ; 30 ס"מ.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -6254,7 +6269,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6338,12 +6353,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NNL_ARCHIVE_AL71395894600005171,NNL_ALEPH21188843800005171</t>
+          <t>NNL_ALEPH21188843800005171,NNL_ARCHIVE_AL71395894600005171</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL71395894600005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188843800005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188843800005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL71395894600005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6378,7 +6393,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -6395,12 +6410,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>לוין, שאול (מתרגם)  $$Qלוין, שאול (מתרגם),פורת, אמציה, 1932-2023  $$Qפורת, אמציה, 1932-2023</t>
+          <t>פורת, אמציה, 1932-2023  $$Qפורת, אמציה, 1932-2023,לוין, שאול (מתרגם)  $$Qלוין, שאול (מתרגם)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21184280260005171,NNL_ALEPH21270293990005171</t>
+          <t>NNL_ALEPH21270293990005171,NNL_ALEPH21184280260005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6420,7 +6435,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240 עמודים ; 21 ס"מ.,191, [1] עמודים ; 19 ס"מ.</t>
+          <t>191, [1] עמודים ; 19 ס"מ.,240 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6430,7 +6445,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>תל אביב : עם עובד,אור יהודה : מחברות לספרות</t>
+          <t>אור יהודה : מחברות לספרות,תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -6462,7 +6477,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>אכמון, יעל  $$Qאכמון, יעל,מרכז תרבות העמים לנוער (ירושלים) $$Qמרכז תרבות העמים לנוער (ירושלים)</t>
+          <t>מרכז תרבות העמים לנוער (ירושלים) $$Qמרכז תרבות העמים לנוער (ירושלים),אכמון, יעל  $$Qאכמון, יעל</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6472,7 +6487,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265884640005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21184061850005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21184061850005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265884640005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6482,7 +6497,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Arranged marriage -- Fiction; Married women -- Fiction; Painters -- Fiction; Teenage girls -- Fiction; Women painters -- Fiction; Florence (Italy) -- History -- 1421-1737 -- Fiction,בוטיצ'לי, סנדרו, 1444‏ או 1445-‏1510. הולדת ונוס; Painting -- Italy</t>
+          <t>בוטיצ'לי, סנדרו, 1444‏ או 1445-‏1510. הולדת ונוס; Painting -- Italy,Arranged marriage -- Fiction; Married women -- Fiction; Painters -- Fiction; Teenage girls -- Fiction; Women painters -- Fiction; Florence (Italy) -- History -- 1421-1737 -- Fiction</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6502,7 +6517,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת, זמורה-ביתן,ירושלים : מרכז תרבות עמים לנוער בירושלים</t>
+          <t>ירושלים : מרכז תרבות עמים לנוער בירושלים,אור יהודה : כנרת, זמורה-ביתן</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -6512,7 +6527,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990023498830205171,990025487710205171</t>
+          <t>990025487710205171,990023498830205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -6522,7 +6537,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21265884640005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21265884640005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -6584,7 +6599,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6956,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21183326640005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21183326640005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -7100,6 +7115,11 @@
           <t>עוז, עמוס, 1939-2018. קופסה שחורה; Hebrew fiction -- History and criticism; Epistolary fiction</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1 מקור מקוון..</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>ישראל : מוציא לאור לא ידוע</t>
@@ -7144,7 +7164,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE44650458,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE38534971</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE38534971,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE44650458</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7181,7 +7201,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>אלעזר, צילה  $$Qאלעזר, צילה,לבנון, יצחק, 1914-2007  $$Qלבנון, יצחק, 1914-2007</t>
+          <t>לבנון, יצחק, 1914-2007  $$Qלבנון, יצחק, 1914-2007,אלעזר, צילה  $$Qאלעזר, צילה</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7213,7 +7233,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>אלמוג, אליענה, 1972-  $$Qאלמוג, אליענה, 1972-,ישראל, גלעד  (מאייר)  $$Qישראל, גלעד</t>
+          <t>ישראל, גלעד  (מאייר)  $$Qישראל, גלעד,אלמוג, אליענה, 1972-  $$Qאלמוג, אליענה, 1972-</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7255,7 +7275,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,214 עמודים ; 21 ס"מ.</t>
+          <t>214 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -7265,7 +7285,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7411,7 +7431,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">

--- a/excel/booklist2018.xlsx
+++ b/excel/booklist2018.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ניקה שתיקה / דורית אורגד ; מספרת - דורית אורגד.,ניקה שתיקה / דורית אורגד ; איורים - נורית צרפתי.</t>
+          <t>ניקה שתיקה / דורית אורגד ; איורים - נורית צרפתי.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -509,42 +509,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11356134100005171,NNL_ALEPH21170325940005171</t>
+          <t>NNL_ALEPH21170325940005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11356134100005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170325940005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170325940005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>אורגד, דורית, 1936- מחבר דובר$$Qאורגד, דורית, 1936-,אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
+          <t>אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Children's literature, Hebrew; Children's literature, Israeli</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19773162</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,23 עמודים ; 23 ס"מ.</t>
+          <t>23 עמודים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19960101,20130101</t>
+          <t>19960101</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,ת"א [=תל אביב] : הקיבוץ המאוחד</t>
+          <t>ת"א [=תל אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -554,12 +554,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>990013509340205171,990036965420205171</t>
+          <t>990013509340205171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -571,27 +571,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>משגעת פילים</t>
+          <t>משגעת פילים / אורי אורלב ; צירה אורה איתן.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>איתן, אורה, 1940-  $$Qאיתן, אורה, 1940-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71342806900005171</t>
+          <t>NNL_ALEPH21195087180005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71342806900005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21195087180005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew; Practical jokes; Proverbs, Hebrew; Parent and child -- Juvenile fiction; Stories in rhyme</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE134633192</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[16] עמודים : איורים (חלקם צבעוניים) ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>אחרי 1977]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>997008754398405171</t>
+          <t>990035263930205171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -601,6 +646,11 @@
           <t>האפרוח העשירי / נתן אלתרמן ; איורים - דני קרמן ; [עורכת - יונה טפר].</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>קרמן, דני, 1940-  $$Qקרמן, דני, 1940-</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>NNL_ALEPH21235783110005171</t>
@@ -618,12 +668,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Children's poetry, Hebrew,Children's stories, Hebrew</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE76779057</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -633,12 +683,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20050101,19920101</t>
+          <t>20050101</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>und,heb</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -648,7 +703,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>archive,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -660,104 +715,59 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>מאירים שרים ביאליק : מיטב שיריו לילדים / חיים נחמן ביאליק ; עורכת - יעל אורנן.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>אורנן-גרמי, יעל  $$Qאורנן-גרמי, יעל</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NNL_ALEPH21292927050005171</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21292927050005171</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ביאליק, חיים נחמן, 1873-1934$$Qביאליק, חיים נחמן, 1873-1934</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[32] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20050101</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>תל אביב : ציבלין</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>990024989790205171</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>מאיירים שרים ביאליק / ביאליק חיים נחמן</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>כובע קסמים</t>
+          <t>כובע קסמים / לאה גולדברג ; איורים - רינת הופר.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>גולדברג, לאה, 1911-1970  (מחבר)  $$Qגולדברג, לאה, 1911-1970</t>
+          <t>הופר, רינת, 1966-  $$Qהופר, רינת, 1966-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL11454205020005171</t>
+          <t>NNL_ALEPH21168071000005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL11454205020005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21168071000005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>וגנר, נפתלי, 1949- מלחין$$Qוגנר, נפתלי, 1949-</t>
+          <t>גולדברג, לאה, 1911-1970$$Qגולדברג, לאה, 1911-1970</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Children's songs, Hebrew</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12454205010005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE44658960</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>27, [2] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20060101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ישראל : קלסיקלטת</t>
+          <t>בני ברק : ספרית פועלים</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -767,66 +777,161 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>997010857531705171</t>
+          <t>990025124850205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel - Music Library$$ONNL_MUSIC_AL11454205020005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ורד הקיפודה</t>
+          <t>ורד הקפודה / שלומית דותן ; איורים - נעמה גולומב.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>גולומב, נעמה  $$Qגולומב, נעמה</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21289780060005171</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21289780060005171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>דותן, שלומית$$Qדותן, שלומית</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22, [2] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20060101</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>בני-ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>990025343230205171</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>חנן הגנן</t>
+          <t>חנן הגנן / כתבה וצירה רינת הופר ; [עריכה - יעל גובר-אברם].</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>גובר, יעל  (עורך)  $$Qגובר, יעל</t>
+          <t>גובר-אברם, יעל  $$Qגובר-אברם, יעל</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21278397230005171</t>
+          <t>NNL_ALEPH21183100080005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21278397230005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21183100080005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>הופר, רינת, 1966-$$Qהופר, רינת, 1966-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[31] עמודים : איורים צבעוניים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>תשס"ג 2003</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>אור יהודה : זמורה-ביתן</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>990041304640205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990023225350205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21278397230005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -863,35 +968,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>23, [1] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>20050101</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>בני ברק : ספרית פועלים</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>990024785430205171</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -900,42 +1010,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>בינה נוסעת מבנימינה / יונה טפר ; איורים: דני קרמן.</t>
+          <t>בינה נוסעת מבנימינה / יונה טפר ; איורים - דני קרמן ; [עריכה - לאה שניר].</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>קרמן, דני, 1940-  $$Qקרמן, דני, 1940-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21188942720005171</t>
+          <t>NNL_ALEPH21189143920005171</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188942720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21189143920005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>טפר, יונה, 1941-$$Qטפר, יונה, 1941-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Cows -- Juvenile fiction; Stories in rhyme</t>
+          <t>Stories in rhyme</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19774055,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305146150005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>33 עמודים : איורים צבעוניים ; 24X23 ס"מ.</t>
+          <t>33, [3] עמודים : איורים צבעוניים ; 23 X 24 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20110101</t>
+          <t>20040101</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ת"א : הוצאת הקיבוץ המאוחד</t>
+          <t>ת"א [=תל אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -945,34 +1065,69 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>990044288370205171</t>
+          <t>990024678590205171</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>החתול דלעת משנה את הדעת</t>
+          <t>החתול דלעת משנה את הדעת / יונתן יבין ; איורים: גלעד סופר ; עיצוב: נעם גל ; עריכה: דלית לב.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>סופר, גלעד, 1968-  (מאייר)  $$Qסופר, גלעד, 1968-,סופר, גלעד, 1968-  $$Qסופר, גלעד, 1968-</t>
+          <t>סופר, גלעד, 1968-  (מאייר)  $$Qסופר, גלעד, 1968-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21279364310005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21279364310005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>יבין, יונתן מחבר$$Qיבין, יונתן</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century; Stories in rhyme; Cats -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19773662,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304301660005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304301660005171</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>32 עמודים לא ממוספרים : איורים צבעוניים ; 29 ס"מ.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20130101</t>
+          <t>[2018]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>תל-אביב : עם עובד</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -980,9 +1135,19 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990052685890205171</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21279364310005171</t>
         </is>
       </c>
     </row>
@@ -1019,30 +1184,40 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>24 עמודים : איורים (חלקם צבעוניים) ; 23 X 24 ס"מ.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>תשס"ד 2004</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>בני ברק : ספרית פועלים</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>990023720340205171</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1051,60 +1226,70 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>האגדה על השיח הקטן / ספרה וציירה אסנת ישפה.,האגדה על השיח הקטן- ערבית [בהמתנה להפקדת חובה] / אסנת ישפה גזי ; תרגום: בשארה מרג'יה.</t>
+          <t>האגדה על השיח הקטן / ספרה וציירה אסנת ישפה.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71248728780005171,NNL_ALEPH21201891740005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71248728780005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21201891740005171</t>
+          <t>NNL_ALEPH21201891740005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ישפה גזית, אסנת$$Qישפה גזית, אסנת,ישפה גזית, אסנת מחבר$$Qישפה גזית, אסנת</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21201891740005171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>ישפה גזית, אסנת$$Qישפה גזית, אסנת</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Children's stories, Hebrew</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>[19] עמודים : איורים ; 27 ס"מ.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>20110101</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>תל אביב : זמורה-ביתן,[ישראל] : זמורה-ביתן - מוציאים לאור</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ara,heb</t>
+          <t>תשנ"ז 1997</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>990037867660205171,990017793110205171</t>
+          <t>תל אביב : זמורה-ביתן</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
+        <is>
+          <t>990017793110205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1113,7 +1298,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>כנפים של שבת / שלומית כהן-אסיף.,כנפים של שבת / שלומית כהן-אסיף ; איורים - גיל-לי אלון קוריאל ; [עריכה - יונה טפר].</t>
+          <t>כנפים של שבת / שלומית כהן-אסיף ; איורים - גיל-לי אלון קוריאל ; [עריכה - יונה טפר].</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1123,17 +1308,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21272363430005171,NNL_ALEPH11356132000005171</t>
+          <t>NNL_ALEPH21272363430005171</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11356132000005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21272363430005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21272363430005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>כהן-אסיף, שלומית, 1949- מחבר$$Qכהן-אסיף, שלומית, 1949-,כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
+          <t>כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1143,22 +1328,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19773752</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31, [1] עמודים : איורים צבעוניים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>31, [1] עמודים : איורים צבעוניים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20130101,20060101</t>
+          <t>20060101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>תל אביב : הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1168,12 +1353,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>990036965970205171,990025217160205171</t>
+          <t>990025217160205171</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1190,50 +1375,65 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NNL_ALEPH21270785270005171</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270785270005171</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>מגן, רבקה, 1934-2018$$Qמגן, רבקה, 1934-2018</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>[22] עמודים : איורים צבעוניים ; 22 ס"מ.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>20050101</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[קרית גת] : קוראים</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>990034705930205171</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1242,27 +1442,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>הכל התחיל מכפתור / כתבה נאוה מקמל-עתיר ; אירה אלישבע געש ; הפקה והבאה לדפוס - בתיה בודנר.,הכל התחיל מכפתור / נאוה מקמל עתיר; קריינות: אביה שפיצר.</t>
+          <t>הכל התחיל מכפתור / כתבה נאוה מקמל-עתיר ; אירה אלישבע געש ; הפקה והבאה לדפוס - בתיה בודנר.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>געש, אלישבע, 1946-  $$Qגעש, אלישבע, 1946-,שפיצר, אביה  (דובר)  $$Qשפיצר, אביה</t>
+          <t>געש, אלישבע, 1946-  $$Qגעש, אלישבע, 1946-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21211314310005171,NNL_ALEPH71270287210005171</t>
+          <t>NNL_ALEPH21211314310005171</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211314310005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270287210005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211314310005171</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>מקמל-עתיר, נאוה, 1964-$$Qמקמל-עתיר, נאוה, 1964-,מקמל-עתיר, נאוה, 1964- מחבר$$Qמקמל-עתיר, נאוה, 1964-</t>
+          <t>מקמל-עתיר, נאוה, 1964-$$Qמקמל-עתיר, נאוה, 1964-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1272,35 +1472,40 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>34, [2] עמודים : איורים צבעוניים ; 22 X 28 ס"מ.,1 מקור מקוון.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20000101,20180101</t>
+          <t>34, [2] עמודים : איורים צבעוניים ; 22 X 28 ס"מ.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>תל אביב : משכל,תל אביב : iCast</t>
+          <t>20000101</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : משכל</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>990048968720205171,990019205240205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>990019205240205171</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1309,17 +1514,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>אגוז של זהב / לוין קיפניס ; ציירה א. מימי.,סיפור - אגוז של זהב.</t>
+          <t>אגוז של זהב / לוין קיפניס ; ציירה א. מימי.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>מימי, א.  (מאייר)  $$Qמימי, א.,מימי, א.  $$Qמימי, א.</t>
+          <t>מימי, א.  $$Qמימי, א.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21266728470005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21266728470005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>קיפניס, לוין, 1894-1990$$Qקיפניס, לוין, 1894-1990,קיפניס, לוין, 1894-1990 מחבר</t>
+          <t>קיפניס, לוין, 1894-1990$$Qקיפניס, לוין, 1894-1990</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1327,14 +1547,19 @@
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303882340005171</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[32] עמודים : איורים צבעוניים ; 22 X 24 ס"מ.</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19900101,19120717</t>
+          <t>19900101</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ת"א [=תל אביב] : מודן,(ת.א.)[=תל-אביב] : תמוז</t>
+          <t>ת"א [=תל אביב] : מודן</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1342,9 +1567,19 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990017298970205171</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>archive,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21266728470005171</t>
         </is>
       </c>
     </row>
@@ -1381,30 +1616,40 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>22, [2] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>תשס"ב 2002</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>בני ברק : ספרית פועלים</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>990022428430205171</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1413,62 +1658,62 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>מר זוטא ועץ התפוחים / כתבה: אורית רז ; אירה: אורה איל ; עריכה: מירה מאיר ועדנה קרמר.</t>
+          <t>מר זוטא ועץ התפוחים / כתבה אורית רז, אירה אורה איל.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>أيال، أورة  $$Qأيال، أورة,איל, אורה, 1946-2011  (מאייר)  $$Qאיל, אורה, 1946-2011</t>
+          <t>איל, אורה, 1946-2011  (מאייר)  $$Qאיל, אורה, 1946-2011</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21168913720005171</t>
+          <t>NNL_ALEPH21252498840005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21168913720005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21252498840005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>רז, אורית, 1953- מחבר$$Qרז, אורית, 1953-</t>
+          <t>רז, אורית, 1953-$$Qרז, אורית, 1953-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Gardening -- Juvenile fiction; Plants -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303395600005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303749440005171</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>28 עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+          <t>20,[2] עמודים : איורים צבעוניים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20050101,20150101</t>
+          <t>[תשמ"ד 1984]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>בני ברק : ספרית פועלים</t>
+          <t>[תל-אביב] : ספרית פועלים</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ara,heb</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>990049151730205171</t>
+          <t>990009770560205171</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1478,96 +1723,66 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21168913720005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21252498840005171</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>הילדה הכי יפה בגן.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NNL_MUSIC_AL71251019830005171</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71251019830005171</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>רכטר, יוני, 1951- מלחין$$Qרכטר, יוני, 1951-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Children -- Songs and music; Kindergarten -- Songs and music</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE137318575,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE26999773</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>19880101</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>990026581770205171</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>איזה צבע הכי יפה / שביט אקי</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>פרח נתתי לנורית, קטן ויפה וכחל...</t>
+          <t>פרח נתתי לנורית / מרים ילן-שטקליס ; לקטה וערכה יעל גובר ; איורים - דוד פולונסקי.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>גובר, יעל  $$Qגובר, יעל</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11476969570005171</t>
+          <t>NNL_ALEPH21238832380005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11476969570005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21238832380005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>למפל, מקס, 1900-1987 מלחין$$Qלמפל, מקס, 1900-1987</t>
+          <t>ילן-שטקליס, מרים, 1900-1984$$Qילן-שטקליס, מרים, 1900-1984</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Children's poetry, Hebrew</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19256264</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>63, [1] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>תשס"ה 2005</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת, זמורה-ביתן, דביר</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1577,12 +1792,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>997003373580405171</t>
+          <t>990024766070205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -1710,35 +1930,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>19, [2] עמודים : איורים צבעוניים ; 23 X 28 ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>20000101</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>תל אביב : משכל</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>990019368990205171</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1747,12 +1972,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>קריקטור הנחש הטוב</t>
+          <t>קריקטור הנחש הטוב / טומי אונגרר ; [תרגום לעברית - מיכאל דק].</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>דק, מיכאל  $$Qדק, מיכאל,רגב, זינה  $$Qרגב, זינה</t>
+          <t>דק, מיכאל  $$Qדק, מיכאל</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21202069500005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21202069500005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1762,30 +1997,45 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Children's stories, French -- 20th century; Children's stories -- Translations into Hebrew; Snakes as pets -- Juvenile fiction; Teachers -- Juvenile fiction,Children's stories, English -- Translations into Hebrew</t>
+          <t>Children's stories, French -- 20th century; Children's stories -- Translations into Hebrew; Snakes as pets -- Juvenile fiction; Teachers -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[32] עמודים : איורים צבעוניים ; 28 ס"מ.,30, [2] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20080101,20060101</t>
+          <t>[32] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20060101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>רמת השרון : צלטנר ספרים של ילדים</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>heb</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990031593240205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -1794,52 +2044,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>סיפורים שאהבתי / גי דה מופסן ; תרגמה מצרפתית: לחן הלברטל.</t>
+          <t>ספורים שאהבתי / חזר וספר יהודה אטלס ; ציר דני קרמן.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ליצמן, טוביה  $$Qליצמן, טוביה,הלברטל, לחן  (מתרגם)  $$Qהלברטל, לחן</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11398342140005171</t>
+          <t>NNL_ALEPH21227875760005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11398342140005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227875760005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ליצמן, טוביה$$Qליצמן, טוביה,מופסן, גי דה, 1850-1893 מחבר$$Qמופסן, גי דה, 1850-1893</t>
+          <t>אטלס, יהודה, 1937-$$Qאטלס, יהודה, 1937-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Short stories, French -- Translations into Hebrew</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE165748664,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303598890005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1 מקור מקוון (127 עמודים)</t>
+          <t>79 עמודים : איורים ; 28 ס"מ.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20170101</t>
+          <t>[תשמ"ה 1985]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[פתח תקווה] : [סטימצקי - הוצאה לאור]</t>
+          <t>תל אביב : שבא</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1849,7 +2099,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>997009674389905171</t>
+          <t>990010104200205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1861,42 +2116,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>תערוכת ציורי אמיל אגי ורדי.</t>
+          <t>אוגי / נרי אלומה ; איורים - זהר טל-ענבר ; [בעריכת עדנה קרמר ומירה מאיר].</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>עזרן, שמעון בן שמעון בן יוסף</t>
+          <t>טל-ענבר, זהר  $$Qטל-ענבר, זהר</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429943580005171</t>
+          <t>NNL_ALEPH21216553750005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429943580005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216553750005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>אלומה, נרי, 1963-$$Qאלומה, נרי, 1963-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE15647176</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18 x 23 cm.</t>
+          <t>[23] עמודים : איורים צבעוניים ; 25X23 ס"מ.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19810101</t>
+          <t>20060101</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>אור יהודה : הד ארצי</t>
+          <t>בני-ברק : ספרית פועלים</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1906,12 +2171,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>997003244170405171</t>
+          <t>990025508880205171</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1923,47 +2188,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>מעשה בפא סופית.</t>
+          <t>מעשה בפ'א סוףית / נתן אלתרמן ; איורים - דני קרמן ...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>אלתרמן, נתן, 1910-1970  (מחבר)  $$Qאלתרמן, נתן, 1910-1970</t>
+          <t>קרמן, דני, 1940-  $$Qקרמן, דני, 1940-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71171791980005171</t>
+          <t>NNL_ALEPH21268313290005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71171791980005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268313290005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>נוי, מאיר, 1922-1998 מלחין$$Qנוי, מאיר, 1922-1998</t>
+          <t>אלתרמן, נתן, 1910-1970$$Qאלתרמן, נתן, 1910-1970</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Alphabet -- Songs and music</t>
+          <t>Children's stories, Hebrew -- 21st century</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303694150005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12529104820005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303694150005171</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32 עמודים : איורים צבעוניים ; 30X22 ס"מ.,32 עמודים : איורים צבעוניים ; 22 X 30 ס"מ.</t>
+          <t>32 עמודים : איורים צבעוניים ; 22 X 30 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20110101,20000101</t>
+          <t>20000101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1978,17 +2243,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>990024961530205171</t>
+          <t>990020771370205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268313290005171</t>
         </is>
       </c>
     </row>
@@ -2025,35 +2290,40 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>78 עמודים : איורים צבעוניים ; 28 ס"מ.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>20050101</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>תל אביב : משכל</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>990024873010205171</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2062,99 +2332,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>מאורע מוצלח - קומדיה מאת פ. מרזק.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NNL_EPHEMERA11477045920005171</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11477045920005171</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>גלילי, רענן, 1920-2004</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19332551</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>997003384590405171</t>
+          <t>ריז'ק / בן ברוך יעל</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>הבלש שמפיניון והחיפושית שנסעה לאיבוד / נעמי בן גור.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NNL_ALEPH11361381990005171</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361381990005171</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>בן גור, נעמי, 1948- מחבר$$Qבן גור, נעמי, 1948-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Children's stories, Hebrew -- 21st century</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261465</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1 מקור מקוון.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>20140101</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>תל אביב : iCast</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>990037841360205171</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>audio</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>הבלש שמפניון והחיפושית שנסעה לאיבוד / בן גור נעמי</t>
         </is>
       </c>
     </row>
@@ -2201,25 +2386,30 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>[2015]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>ירושלים : בית הוצאה כתר</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>990038627690205171</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>$$VThe National Library of Israel$$ONNL_ALEPH21210023280005171</t>
         </is>
@@ -2258,30 +2448,40 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>32, [1] עמודים : איורים צבעוניים ; 25 X 28 ס"מ.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>תשנ"ז 1996</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>תל אביב : מטר</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>990017927620205171</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2290,22 +2490,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>بمبم يرى بالمقلوب : قصة نصفها حقيقة / من تأليف: يوسي چودارد ؛ عن العبرية: علاء حليحل ؛ الرسومات: كرميت چلعادي- پولارد.</t>
+          <t>הינשוף שראה הפוך : ספור שחציו אמת / מאת יוסי גודארד ; איורים - כרמית גלעדי-פולארד ; [עריכה - יונה טפר].</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>چلعادي- پولارد، كرميت  (رسام)  $$Qچلعادي- پولارد، كرميت</t>
+          <t>גלעדי-פולארד, כרמית  $$Qגלעדי-פולארד, כרמית</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21223874990005171</t>
+          <t>NNL_ALEPH21194315670005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21223874990005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21194315670005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>גודארד, יוסי, 1937-$$Qגודארד, יוסי, 1937-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2315,44 +2520,49 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304195640005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302712460005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>29 صفحة.</t>
+          <t>29 עמודים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20070101,20160101</t>
+          <t>20070101</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[بني براك] : هكيبوتس همئوحاد،</t>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990039437000205171</t>
+          <t>990025496080205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21223874990005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>קבוצת מחול נעה דר: החלום הוא ציר גדול.,החלום הוא ציר גדול : מבחר שירים לילדים / לאה גולדברג ; ציורים - אבנר כץ.</t>
+          <t>החלום הוא ציר גדול : מבחר שירים לילדים / לאה גולדברג ; ציורים - אבנר כץ.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2362,12 +2572,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21219213970005171,NNL_EPHEMERA11428132940005171</t>
+          <t>NNL_ALEPH21219213970005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11428132940005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21219213970005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21219213970005171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2377,40 +2587,45 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Music -- Performance -- Israel; Dance -- Israel; Theater -- Israel; Children -- Israel; Israel -- Civilization,Children's literature, Hebrew; Children's literature, Israeli</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE5025457</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>כולל איור, כולל תצלום..,95 עמודים : איורים צבעוניים ; 22 X 24 ס"מ.</t>
+          <t>95 עמודים : איורים צבעוניים ; 22 X 24 ס"מ.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>תשנ"ח 1998</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>[בני ברק] : ספרית פועלים</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>990017887980205171,997001089350405171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>sheet,book</t>
+          <t>990017887980205171</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2419,32 +2634,52 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ג'ירפה ולישון ; אל תדאגי רותי</t>
+          <t>אל תדאגי רותי : [ספורי רותי] / דויד גרוסמן; אירה הלה חבקין.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>בודיאן, אריה  $$Qבודיאן, אריה,חבקין, הילה, 1948-  $$Qחבקין, הילה, 1948-</t>
+          <t>חבקין, הילה, 1948-  $$Qחבקין, הילה, 1948-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21266291900005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21266291900005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>גרוסמן, דויד, 1954-$$Qגרוסמן, דויד, 1954-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew; Bedtime -- Juvenile fiction; Giraffe -- Juvenile fiction</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1 קלטת שמע : אנלוגי, סטריאו..</t>
+          <t>[10] דפים : איורים צבעוניים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20130101,19970726</t>
+          <t>תש"ס 1999</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ראשון-לציון : ויזארט</t>
+          <t>תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2452,14 +2687,19 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990019070320205171</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel - Music Library$$ONNL_MUSIC_AL21270375950005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -2496,35 +2736,40 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>[30] עמודים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>20070101</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>תל-אביב : בבל</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>990025490400205171</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2563,146 +2808,126 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12545048040005171</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>[34] עמודים : איורים צבעוניים, מפה צבעונית ; 27X25 ס"מ.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>20060101</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>רמת השרון : צלטנר ספרים של ילדים</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>990026517690205171</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21210618950005171</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>העזה עליזה מסתכלת באלבום / נירה הראל ; ציר גיורא כרמי.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>כרמי, גיורא  (מאייר)  $$Qכרמי, גיורא</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>NNL_ALEPH21178664620005171</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21178664620005171</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>הראל, נירה, 1936-$$Qהראל, נירה, 1936-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Children's literature, Israeli; Israel -- History -- Juvenile literature; Israel -- History -- Textbooks</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[32] עמודים : איורים (חלקם צבעוניים), פורטרט ; 23 ס"מ.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ירושלים : כתר</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>990009365580205171</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>העיזה עליזה מסתכלת באלבום / הראל נירה</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>מרתה והאופניים</t>
+          <t>מרתה והאופניים / זולו ז'רמנו</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>בלתזר</t>
+          <t>בלתזר / נורית זרחי ; אירה עפרה עמית.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>עמית, עפרה, 1966-  $$Qעמית, עפרה, 1966-,Camil,Baltazar 1902-1977</t>
+          <t>עמית, עפרה, 1966-  $$Qעמית, עפרה, 1966-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21217047240005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21217047240005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Baltazar, Camil, ; Nestorianu, Alex. Z.,זרחי, נורית, 1941-$$Qזרחי, נורית, 1941-</t>
+          <t>זרחי, נורית, 1941-$$Qזרחי, נורית, 1941-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Baltazár, Dezső, 1871-1936 -- Autographs</t>
+          <t>Children's stories, Hebrew -- 21st century</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>[23] עמודים : איורים צבעוניים ; 27X26 ס"מ.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>19260101,19350525</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>תשס"ו 2006</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>קרית גת : קוראים</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>990025385140205171</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2711,27 +2936,52 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>["ליתן פירוד בין הדבקים" במבטא התפלות] מודעה ואזהרה נחוצה עד מאוד מאוד</t>
+          <t>שוקולד מריר מאד / חוה חבושי ; [ציורים - נאוה ברזה].</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA21219166930005171</t>
+          <t>NNL_ALEPH21200067240005171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA21219166930005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21200067240005171</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ירושלים (ישראל). רבנים</t>
+          <t>חבושי, חוה, 1950-$$Qחבושי, חוה, 1950-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's literature, Israeli</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE27670393,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE8593349</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>40, [1] עמודים : איורים (צבעוניים) ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c1987</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[גבעתיים] : מסדה</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2741,19 +2991,39 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>990019440510205171</t>
+          <t>990010782180205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>תעלוליו של אמיל / מאת אסטריד לינדגרן וביורן ברג ; תרגמה משבדית תמר שלמון.,תעלוליו של אמיל / אסטריד לינדגרן וביורן ברג ; תרגמה משבדית תמר שלמון.</t>
+          <t>תעלוליו של אמיל / אסטריד לינדגרן וביורן ברג ; תרגמה משבדית תמר שלמון.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>שלמון, תמר  $$Qשלמון, תמר,ברג, ביורן, 1923-2008  $$Qברג, ביורן, 1923-2008</t>
+          <t>ברג, ביורן, 1923-2008  $$Qברג, ביורן, 1923-2008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21230265560005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230265560005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2761,22 +3031,47 @@
           <t>לינדגרן, אסטריד, 1907-2002$$Qלינדגרן, אסטריד, 1907-2002</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Children's stories, Swedish -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[תל אביב] : עם עובד,תל אביב : עם עובד</t>
+          <t>[29] עמודים : איורים צבעוניים ; 27X22 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תשס"ז 2006</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
+        <is>
+          <t>990025406110205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2785,52 +3080,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; ציר: יוסי אבולעפיה.,עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; צייר יוסי אבולעפיה.</t>
+          <t>עלילות פרדיננד פדהצור בקצור / כתב אפרים סידון ; צייר יוסי אבולעפיה.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>אבולעפיה, יוסי, 1944-  (מאייר)  $$Qאבולעפיה, יוסי, 1944-,אבולעפיה, יוסי, 1944-  $$Qאבולעפיה, יוסי, 1944-</t>
+          <t>אבולעפיה, יוסי, 1944-  $$Qאבולעפיה, יוסי, 1944-</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21250316210005171,NNL_ALEPH21288547950005171</t>
+          <t>NNL_ALEPH21288547950005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21288547950005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21250316210005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21288547950005171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>סידון, אפרים, 1946- מחבר$$Qסידון, אפרים, 1946-,סידון, אפרים, 1946-$$Qסידון, אפרים, 1946-</t>
+          <t>סידון, אפרים, 1946-$$Qסידון, אפרים, 1946-</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew; Stories in rhyme; Kings and rulers -- Juvenile fiction,Children's literature, Hebrew; Children's literature, Israeli</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305114550005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303777630005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303777630005171</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[11] דפים : איורים (חלקם צבעוניים) ; 23 ס"מ.,25 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
+          <t>[11] דפים : איורים (חלקם צבעוניים) ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20150101</t>
+          <t>1976)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>(ירושלים : כתר,ירושלים : כתר ספרים</t>
+          <t>(ירושלים : כתר</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2840,7 +3135,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>990038198240205171,990020255140205171</t>
+          <t>990020255140205171</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2850,7 +3145,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21250316210005171,$$VThe National Library of Israel$$ONNL_ALEPH21288547950005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21288547950005171</t>
         </is>
       </c>
     </row>
@@ -2887,35 +3182,40 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>[28] עמודים : איורים צבעוניים ; 30X29 ס"מ.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>20060101</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>אור יהודה : כנרת</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>990025237080205171</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -2924,24 +3224,79 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>לילה בלי ירח</t>
+          <t>לילה בלי ירח / שירה גפן, אתגר קרת ; איורים - דוד פולונסקי.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Keret, Etgar, 1967-  $$QKeret, Etgar, 1967-</t>
+          <t>קרת, אתגר, 1967-  $$Qקרת, אתגר, 1967-</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21212178360005171</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21212178360005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>גפן, שירה, 1971-$$Qגפן, שירה, 1971-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>[46] עמודים : איורים צבעוניים ; 24X22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20060101</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>תל-אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>990025460450205171</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>המעיל של סבתא / מרים רות ; איורים - יעקב עברי.,המעיל של סבתא / מאת מרים רות ; איורים - יעקב עברי.</t>
+          <t>המעיל של סבתא / מרים רות ; איורים - יעקב עברי.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2949,76 +3304,131 @@
           <t>עברי, יעקב  $$Qעברי, יעקב</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21272081030005171</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21272081030005171</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>רות, מרים, 1910-2005$$Qרות, מרים, 1910-2005</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Stories in rhyme; Children's stories, Hebrew; Grandmothers -- Juvenile fiction; Grandparent and child -- Juvenile fiction; Coats -- Juvenile fiction</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302767300005171</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>43, [1] עמודים : איורים צבעוניים ; 24 ס"מ.</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>מושב בן שמן : מודן,(תל-אביב : רשפים</t>
+          <t>[2011]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>מושב בן שמן : מודן</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>heb</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990035069690205171</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21272081030005171</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>El tractor en el arenero : un cuento sobre un tractor grande para niños pequeños / contado por meir Shalev ; ilustraciones de Yossi Abulafia.</t>
+          <t>הטרקטור בארגז-החול : ספור על טרקטור גדול לילדים קטנים / ספר מאיר שלו ; ציר יוסי אבולעפיה.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abolafia, Yossi  (illustrator)  $$QAbolafia, Yossi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21235294290005171</t>
+          <t>NNL_ALEPH21278550810005171</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21235294290005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21278550810005171</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>שלו, מאיר, 1948-2023$$Qשלו, מאיר, 1948-2023</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Children's stories -- Translations into Spanish; Tractors -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304062430005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE19774202</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1 volume (unpaged) : color illistrations ; 21 cm.</t>
+          <t>[24] עמודים : איורים צבעוניים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>תשנ"ה 1995</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>990047939470205171</t>
+          <t>990013416320205171</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3035,17 +3445,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>לויט, מיכל  $$Qלויט, מיכל</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21170285720005171,NNL_ALEPH21268231620005171</t>
+          <t>NNL_ALEPH21170285720005171</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170285720005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268231620005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21170285720005171</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3055,35 +3465,45 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Children's stories, Hebrew</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24 עמודים : איורים צבעוניים ; 21 ס"מ.,[24] עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>24 עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>תשנ"ה 1995</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>990013504250205171,990022579030205171</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
+        <is>
+          <t>990013504250205171</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3183,7 +3603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>עשן כיסה את הגולן / צייר ה. הכטקופף.,עשן כיסה את הגולן / אוריאל אופק ; צייר ה. הכטקופף.</t>
+          <t>עשן כיסה את הגולן / אוריאל אופק ; צייר ה. הכטקופף.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3193,55 +3613,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21246495530005171,NNL_ALEPH21506934350005171</t>
+          <t>NNL_ALEPH21506934350005171</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246495530005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21506934350005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21506934350005171</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>אופק, אוריאל, 1926-1987$$Qאופק, אוריאל, 1926-1987,אופק, אוריאל, 1926-1987 מחבר$$Qאופק, אוריאל, 1926-1987</t>
+          <t>אופק, אוריאל, 1926-1987 מחבר$$Qאופק, אוריאל, 1926-1987</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew,Children's literature, Hebrew -- 20th century; Yom Kippur War, 1973 -- Juvenile fiction</t>
+          <t>Children's literature, Hebrew -- 20th century; Yom Kippur War, 1973 -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>160 עמודים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>19870101</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>[תל-אביב] : הוצאת ספרים מ. מזרחי</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>997012359870505171,990011393640205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>997012359870505171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3250,32 +3675,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>בן אלישע.</t>
+          <t>אלישע / רעיה בלטמן.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71181330660005171</t>
+          <t>NNL_ALEPH21205661090005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71181330660005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21205661090005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>שער אריה, שמואל בן אלישע$$Qשער אריה, שמואל בן אלישע</t>
+          <t>בלטמן, רעיה, 1927-2013$$Qבלטמן, רעיה, 1927-2013</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cabala</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>154, [1] עמודים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20040101</t>
+          <t>19890101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -3285,12 +3730,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990000874860205171</t>
+          <t>990010903360205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>manuscript</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3302,15 +3747,70 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>הילד מ"שמה"</t>
+          <t>הילד מ'שמה' / תמר ברגמן.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21274370540005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21274370540005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ברגמן, תמר, 1939-2016$$Qברגמן, תמר, 1939-2016</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holocaust survivors -- Israel -- Juvenile fiction; Children -- Israel -- Juvenile fiction; Kibbutzim -- Juvenile fiction; Israel -- History -- War of Independence, 1948-1949 -- Juvenile fiction; Jordan Valley (Israel) -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>130 עמודים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>19830101</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990018219910205171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3319,24 +3819,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>מיימית הפלאים</t>
+          <t>מיימית הפלאים / גוטמן נחום</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>המכוערים של דניאל</t>
+          <t>המכוערים של דניאל / עפרה גלברט-אבני ; איורים - שי צ'רקה.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>לירון, אביב  (דובר)  $$Qלירון, אביב</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21199335610005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21199335610005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>גלברט-אבני, עפרה, 1947- מחבר$$Qגלברט-אבני, עפרה, 1947-,גלברט-אבני, עפרה, 1947-$$Qגלברט-אבני, עפרה, 1947-</t>
+          <t>גלברט-אבני, עפרה, 1947-$$Qגלברט-אבני, עפרה, 1947-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3346,59 +3856,94 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302831050005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261477</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302831050005171</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>187, [3] עמודים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>187, [3] עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20140101,20050101</t>
+          <t>20050101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>תל אביב : הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990024852020205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21199335610005171</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>אלרגיה ואימונולוגיה [כתב עת אלקטרוני].</t>
+          <t>אלרגיה : (ספור ילדות) / יהונתן גפן ; איורים - איציק רנרט ; עורכת הספר - שרי גוטמן.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ההסתדרות הרפואית בישראל $$Qההסתדרות הרפואית בישראל</t>
+          <t>רנרט, איציק, 1959-  $$Qרנרט, איציק, 1959-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL-Journals51301561420005171</t>
+          <t>NNL_ALEPH21272333620005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL-Journals51301561420005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21272333620005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>אלוני, יוסי צלם</t>
+          <t>גפן, יהונתן, 1947-2023$$Qגפן, יהונתן, 1947-2023</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Allergy -- Periodicals; Immunology -- Periodicals</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303776450005171</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>101 עמודים : איורים צבעוניים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>תשס"ג 2003</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>אור יהודה : דביר</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3408,17 +3953,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990037875240205171</t>
+          <t>990023060590205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21272333620005171</t>
         </is>
       </c>
     </row>
@@ -3455,35 +4000,40 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>167 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>20070101</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>אור יהודה : זמורה-ביתן</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>990025547890205171</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3497,50 +4047,65 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NNL_ALEPH21246275730005171</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246275730005171</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>וינשטין, עשי$$Qוינשטין, עשי</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>71 עמודים : איורים ; 24 ס"מ.</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>תשנ"ו 1996</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>אור יהודה : ספרית מעריב</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>990017452670205171</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3579,35 +4144,40 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>124 עמודים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>20000101</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ירושלים : כתר</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>990019449470205171</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3616,47 +4186,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>לעזוב בית</t>
+          <t>לעזוב בית : (סיפור הפינוי) / יונה טפר ; איורים - אבי כץ ; [עריכה - לאה שניר].</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>בקר, נועה  (דובר)  $$Qבקר, נועה,שניר, לאה, 1945-  $$Qשניר, לאה, 1945-</t>
+          <t>שניר, לאה, 1945-  $$Qשניר, לאה, 1945-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21261006840005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21261006840005171</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>טפר, יונה, 1941- מחבר$$Qטפר, יונה, 1941-,טפר, יונה, 1941-$$Qטפר, יונה, 1941-</t>
+          <t>טפר, יונה, 1941-$$Qטפר, יונה, 1941-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Children's literature, Israeli; Israel -- History -- War of Independence, 1948-1949 -- Juvenile fiction,Children's stories, Hebrew -- 21st century</t>
+          <t>Children's stories, Hebrew -- 21st century; Children's literature, Israeli; Israel -- History -- War of Independence, 1948-1949 -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261397,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE80443375</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>201, [1] עמודים : איורים ; 22 ס"מ.,1 מקור מקוון.</t>
+          <t>201, [1] עמודים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20140101,20000101</t>
+          <t>20000101</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[תל אביב] : הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>[תל אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990027668680205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3698,35 +4288,40 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>143 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>19920101</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ירושלים : כתר</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>990013306220205171</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3735,27 +4330,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>נער העפיפונים / שלומית כהן-אסיף ; איורים - אילן אדר.,נער העפיפונים / שלומית כהן אסיף ; מספר ניקו בר.</t>
+          <t>נער העפיפונים / שלומית כהן-אסיף ; איורים - אילן אדר.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>אדר, אילן  $$Qאדר, אילן,בר, ניקו, 1955-  (דובר)  $$Qבר, ניקו, 1955-</t>
+          <t>אדר, אילן  $$Qאדר, אילן</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21225042750005171,NNL_ALEPH11361353280005171</t>
+          <t>NNL_ALEPH21225042750005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361353280005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21225042750005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21225042750005171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>כהן-אסיף, שלומית, 1949- מחבר$$Qכהן-אסיף, שלומית, 1949-,כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
+          <t>כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3765,22 +4360,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261561</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,63, [1] עמודים : איורים צבעוניים ; 24 ס"מ.</t>
+          <t>63, [1] עמודים : איורים צבעוניים ; 24 ס"מ.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20140101,20060101</t>
+          <t>20060101</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,תל-אביב : ספרית פועלים</t>
+          <t>תל-אביב : ספרית פועלים</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3790,12 +4385,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>990025400200205171,990037841600205171</t>
+          <t>990025400200205171</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3807,35 +4402,70 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>סמיר ויונתן על כוכב מאדים</t>
+          <t>סמיר ויונתן על כוכב מאדים / דניאלה כרמי.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Palomino, Juan  (illustrations )  $$QPalomino, Juan</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21200777790005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21200777790005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Daniella Carmi author$$QCarmi, Daniella</t>
+          <t>כרמי, דניאלה$$Qכרמי, דניאלה</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew; Arab-Israeli conflict -- Juvenile fiction; Palestinian Arabs -- Juvenile fiction; Boys -- Israel -- Juvenile fiction; Arab-Israeli conflict -- Children</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>20020101</t>
+          <t>124, [3] עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>19940101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spa</t>
+          <t>[תל אביב] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990013189840205171</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3844,27 +4474,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>תריסים ירוקים פתוחים / רונית לוינשטיין-מלץ; קריינות: טל צדקוני די-נור.,תריסים ירוקים פתוחים / רונית לוינשטיין-מלץ ; איורים - אבינדב ויתקון.</t>
+          <t>תריסים ירוקים פתוחים / רונית לוינשטיין-מלץ ; איורים - אבינדב ויתקון.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ויתקון, אבינדב  $$Qויתקון, אבינדב,צדקוני די-נור, טל  (דובר)  $$Qצדקוני די-נור, טל</t>
+          <t>ויתקון, אבינדב  $$Qויתקון, אבינדב</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11375602720005171,NNL_ALEPH21273184630005171</t>
+          <t>NNL_ALEPH21273184630005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375602720005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21273184630005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21273184630005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>לוינשטיין-מלץ, רונית, 1960-2015$$Qלוינשטיין-מלץ, רונית, 1960-2015,לוינשטיין-מלץ, רונית, 1960-2015 מחבר$$Qלוינשטיין-מלץ, רונית, 1960-2015</t>
+          <t>לוינשטיין-מלץ, רונית, 1960-2015$$Qלוינשטיין-מלץ, רונית, 1960-2015</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3874,35 +4504,40 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,230 עמודים : איורים ; 21 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20050101,20170101</t>
+          <t>230 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>תל אביב : משכל,תל אביב : iCast</t>
+          <t>20050101</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : משכל</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>990024924390205171,990048843850205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>990024924390205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -3911,42 +4546,52 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>אנסתזיה</t>
+          <t>אנסטסיה / לויס לורי ; מאנגלית - מאירה פירון.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>פירון, מאירה, 1966-  $$Qפירון, מאירה, 1966-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71187235060005171</t>
+          <t>NNL_ALEPH21230570300005171</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71187235060005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230570300005171</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>תורן, דן, 1960-2024 מלחין מבצע$$Qתורן, דן, 1960-2024</t>
+          <t>לורי, לויס$$Qלורי, לויס</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Animated films and children; Animated films</t>
+          <t>Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE27016990</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1 קלטת וידאו (50 דקות) : צבעוני, קול..</t>
+          <t>111, [1] עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>תשס"ו 2006</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>תל אביב : פה גדול</t>
+          <t>תל אביב : טל-מאי</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3956,49 +4601,69 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>990041164730205171</t>
+          <t>990025415890205171</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>מי אשם</t>
+          <t>מי אשם? / מירה מאיר ; איורים - נחום גוטמן.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>יסמין, דודו  (מבצע)  $$Qיסמין, דודו</t>
+          <t>גוטמן, נחום, 1898-1980  $$Qגוטמן, נחום, 1898-1980</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21269186710005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21269186710005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>שיק, אליעזר שלמה, 1940-2015 מחבר$$Qשיק, אליעזר שלמה, 1940-2015</t>
+          <t>מאיר, מירה, 1932-2016$$Qמאיר, מירה, 1932-2016</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE15471977</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>כולל תצלום..</t>
+          <t>35, [1] עמודים : איורים צבעוניים ; 22 X 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[תש"מ 1979]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>אזולאי הפקות</t>
+          <t>[ת"א[=תל אביב]] : ספרית פועלים</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4006,9 +4671,14 @@
           <t>heb</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990018556920205171</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4020,7 +4690,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>שלום לאבא</t>
+          <t>שלום לאבא / רבקה מגן ; [ציורים ועטיפה - אלישבע געש].</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4028,29 +4698,64 @@
           <t>געש, אלישבע, 1946-  $$Qגעש, אלישבע, 1946-</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21233657390005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233657390005171</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>מגן, רבקה, 1934-2018$$Qמגן, רבקה, 1934-2018</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Children and death -- Israel -- Juvenile literature; Fathers -- Israel -- Death -- Juvenile literature; Orphans -- Israel -- Juvenile literature</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>92, [1] עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>19780101</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[תל-אביב] : עם עובד,תל-אביב : עם עובד</t>
+          <t>תשס"ו 2006</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל-אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990025428620205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -4087,35 +4792,40 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>167 עמודים : איורים ; 25 ס"מ.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>19970101</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[קרית גת] : דני ספרים</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>990017786100205171</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4124,7 +4834,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>בעקבות הבית הנעלם : סיפורו של בנימין זאב הרצל / אורה מורג ; עורך הספר - טוביה מורג.,בעקבות הבית הנעלם / אורה מורג ; מספרת אורה מורג.</t>
+          <t>בעקבות הבית הנעלם : סיפורו של בנימין זאב הרצל / אורה מורג ; עורך הספר - טוביה מורג.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4134,17 +4844,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11349298270005171,NNL_ALEPH21277795080005171</t>
+          <t>NNL_ALEPH21277795080005171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277795080005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11349298270005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277795080005171</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>מורג, אורה, 1943-$$Qמורג, אורה, 1943-,מורג, אורה, 1943- מחבר דובר$$Qמורג, אורה, 1943-</t>
+          <t>מורג, אורה, 1943-$$Qמורג, אורה, 1943-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4154,22 +4864,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242604</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,117 עמודים : איורים ; 23 ס"מ.</t>
+          <t>117 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20150101,20040101</t>
+          <t>20040101</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,ירושלים : כתר</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4179,12 +4889,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>990023758200205171,990039034040205171</t>
+          <t>990023758200205171</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4196,52 +4906,77 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>הסיפור המדהים על אדולפוס טיפס</t>
+          <t>הסיפור המדהים על אדולפוס טיפס / מורפורגו מייקל</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד.,סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד [=עמיר].</t>
+          <t>סודי עם אחי הגדול : (ספור) / אנדה פינקרפלד [=עמיר].</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21229228840005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229228840005171</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>עמיר-פינקרפלד, אנדה, 1902-1981$$Qעמיר-פינקרפלד, אנדה, 1902-1981</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Children's stories, Hebrew</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>59, [3] עמודים : איורים ; 22 ס"מ.,59, [3] עמודים : איורים ; 8.</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19750101</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>59, [3] עמודים : איורים ; 8.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[תשי"ח?]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>תל-אביב : עמיחי</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
+        <is>
+          <t>990020333370205171</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4280,35 +5015,40 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>92, [3] עמודים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>19990101</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ת"א [תל אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>990018955790205171</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4317,7 +5057,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>הכתה המעופפת</t>
+          <t>הכתה המעופפת / אריך קסטנר ; תרגמה אלישבע קפלן ;ערך מחדש - אוריאל אופק ; ציורים - ולטר טריאר.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4327,32 +5067,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21241479210005171</t>
+          <t>NNL_ALEPH21290474360005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21241479210005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21290474360005171</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>קסטנר, אריך, 1899-1974 מחבר$$Qקסטנר, אריך, 1899-1974,קסטנר, אריך, 1899-1974$$Qקסטנר, אריך, 1899-1974</t>
+          <t>קסטנר, אריך, 1899-1974$$Qקסטנר, אריך, 1899-1974</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Children's stories -- Translations into Hebrew</t>
+          <t>Children's stories -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261185</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>148 עמודים : איורים ; 23 ס"מ.</t>
+          <t>137 עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[תשמ"א 1981]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4367,12 +5112,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>990022928150205171</t>
+          <t>990020591010205171</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4384,7 +5129,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>איגור ומסע העגורים / אקי שביט ; איורים - אלכסנדר לויטס.,איגור ומסע העגורים.</t>
+          <t>איגור ומסע העגורים / אקי שביט ; איורים - אלכסנדר לויטס.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4394,12 +5139,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21237542860005171,NNL_EPHEMERA11429205500005171</t>
+          <t>NNL_ALEPH21237542860005171</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237542860005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429205500005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237542860005171</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4414,35 +5159,40 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE9000769</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>85 עמודים : איורים ; 23 ס"מ.,כולל תצלום..</t>
+          <t>85 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>תשס"ג 2002</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>בני ברק : ספרית פועלים</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>990022881490205171,997001768540405171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>sheet,book</t>
+          <t>990022881490205171</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4451,67 +5201,72 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>המכבסה של סבא אהרון : סיפור אמיתי על מקום קטן וסבא אחד מיוחד / כתבו ואירו: מירי ומלכה.</t>
+          <t>הגשם של סבא אהרן / כתב מאיר שלו ; ציר יוסי אבולעפיה.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>רוטשילד, מלכה, 1968-  (מחבר מאייר)  $$Qרוטשילד, מלכה, 1968-</t>
+          <t>אבולעפיה, יוסי, 1944-  $$Qאבולעפיה, יוסי, 1944-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21532415280005171</t>
+          <t>NNL_ALEPH21256450610005171</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21532415280005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21256450610005171</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>אורן, מירי, 1960- מחבר מאייר$$Qאורן, מירי, 1960-</t>
+          <t>שלו, מאיר, 1948-2023$$Qשלו, מאיר, 1948-2023</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>דינר, אהרון; דינר, סימה; Families -- Israel -- Juvenile literature; Laundries -- Israel -- Juvenile literature; Family-owned business enterprises -- Israel -- Juvenile literature</t>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12533411540005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>38 עמודים לא ממוספרים : איורים (חלקם צבעוניים), פורטרטים (חלקם צבעוניים) ; 23 ס"מ</t>
+          <t>[24] עמודים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[ישראל] : [מלכה רוטשילד]</t>
+          <t>תשס"ז 2007</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>997012780475705171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990025624510205171</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21532415280005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -4528,12 +5283,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21209240240005171,NNL_ALEPH21211700500005171</t>
+          <t>NNL_ALEPH21209240240005171</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21209240240005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211700500005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21209240240005171</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4548,35 +5303,40 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>92, [3] עמודים : איורים ; 22 ס"מ.,92 עמודים : איורים ; 22 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20000101,20020101</t>
+          <t>92, [3] עמודים : איורים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>20020101</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>[בני ברק] : הקיבוץ המאוחד</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>990020819890205171,990022539940205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990022539940205171</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4706,30 +5466,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c2006</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>אור יהודה : זמורה ביתן</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>990025398210205171</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4738,7 +5508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>עמליה וג'ו / דורית אורגד ; ציורים - תרצה טנאי.</t>
+          <t>עמליה וג'ו ; יחיאלה וקישי / דורית אורגד ; [איורים - נורית צרפתי].</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4748,17 +5518,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21215007480005171</t>
+          <t>NNL_ALEPH21181636150005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21215007480005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21181636150005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>אורגד, דורית, 1936- מחבר$$Qאורגד, דורית, 1936-,אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
+          <t>אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4768,22 +5538,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37261297</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>108, [2] עמודים : איורים ; 23 ס"מ.</t>
+          <t>148 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20140101,19940101</t>
+          <t>תשנ"ח 1997</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>תל אביב : י. שרברק</t>
+          <t>תל אביב : מחברות לספרות</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -4793,12 +5563,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990035147740205171</t>
+          <t>990017560010205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4810,27 +5580,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>לידיה מלכת ארץ ישראל / אורי אורלב ; ציורים - אבי כץ.,לידיה מלכת ארץ ישראל / אורי אורלב; קריינות: טלי פולג.</t>
+          <t>לידיה מלכת ארץ ישראל / אורי אורלב ; ציורים - אבי כץ.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>פולג, טלי  (דובר)  $$Qפולג, טלי</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71264113750005171,NNL_ALEPH21240626350005171</t>
+          <t>NNL_ALEPH21240626350005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71264113750005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21240626350005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21240626350005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>אורלב, אורי, 1931-2022 מחבר$$Qאורלב, אורי, 1931-2022,אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022</t>
+          <t>אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4840,35 +5610,40 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,149 עמודים : איורים ; 23 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19910101,20180101</t>
+          <t>149 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,ירושלים : כתר</t>
+          <t>19910101</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>990048970330205171,990011850300205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>990011850300205171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4907,30 +5682,40 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>234, [1] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>תשס"ה 2005</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>ירושלים : שוקן</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>990024812890205171</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -4939,32 +5724,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>עץ הדומים תפוס</t>
+          <t>עץ הדומים תפוס / גילה אלמגור.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429139410005171</t>
+          <t>NNL_ALEPH21177087470005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429139410005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21177087470005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>אלמגור, גילה, 1939-$$Qאלמגור, גילה, 1939-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Holocaust survivors -- Israel -- Drama; Jewish orphans -- Israel -- Drama; Jewish teenagers -- Israel -- Drama; Interpersonal relations -- Israel -- Drama; Motion pictures -- Israel; Israel -- Drama</t>
+          <t>Almagor, Gila -- Juvenile fiction; Teenage girls -- Israel -- Juvenile fiction; Boarding schools -- Israel -- Juvenile fiction; Mothers and daughters -- Juvenile fiction; Holocaust survivors -- Psychology -- Juvenile fiction; Children of Holocaust survivors -- Israel -- Juvenile fiction; Israel -- Social conditions -- 1948-1967 -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>114, [2] עמודים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19950101,19920101</t>
+          <t>תשנ"ב 1992</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Los Angeles : Fox Lorber Home Video</t>
+          <t>תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -4974,54 +5779,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>997001758030405171</t>
+          <t>990012466800205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>מספיק ודי!.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NNL_EPHEMERA11429470520005171</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429470520005171</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE9159814</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>19830101</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>997002610190405171</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>sheet</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>עוד חיבוק אחד ודי / אלמוג רות</t>
         </is>
       </c>
     </row>
@@ -5058,35 +5833,40 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>265 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>20060101</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ירושלים : כתר</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>990025353630205171</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -5095,42 +5875,62 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>יש ילדים זיגזג</t>
+          <t>יש ילדים זיגזג / דויד גרוסמן.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Тиновицкая, Евгения  (переводчик)  $$QТиновицкая, Евгения</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21479957930005171</t>
+          <t>NNL_ALEPH21243248140005171</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21479957930005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21243248140005171</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Давид Гроссман 1954-$$QГроссман, Давид, 1954-</t>
+          <t>גרוסמן, דויד, 1954-$$Qגרוסמן, דויד, 1954-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kidnapping -- Fiction; Single fathers -- Fiction; Detective and mystery stories, Israeli; Father and child -- Fiction</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304748000005171</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>300, [4] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20190101</t>
+          <t>20010101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>תל אביב : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>997011382842505171</t>
+          <t>990021693110205171</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -5147,27 +5947,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>קריאת הינשוף / סהר עדס ; עורכת: יונית נעמן ; עורכת אחראית: לי ממן.,קריאת הינשוף / קארל היאסן ; מאנגלית - לילית ברקת.</t>
+          <t>קריאת הינשוף / קארל היאסן ; מאנגלית - לילית ברקת.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>נעמן, יונית, 1975-  (עורך)  $$Qנעמן, יונית, 1975-,ברקת, לילית  $$Qברקת, לילית</t>
+          <t>ברקת, לילית  $$Qברקת, לילית</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21523941490005171,NNL_ALEPH21239953230005171</t>
+          <t>NNL_ALEPH21239953230005171</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239953230005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21523941490005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239953230005171</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>עדס, סהר, 1962- מחבר$$Qעדס, סהר, 1962-,היאסן, קרל, 1953-$$Qהיאסן, קרל, 1953-</t>
+          <t>היאסן, קרל, 1953-$$Qהיאסן, קרל, 1953-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5177,37 +5977,42 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12527396580005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>107 עמודים ; ס"מ,256 עמודים ; 21 ס"מ.</t>
+          <t>256 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>חיפה : אמציה,חיפה : פרדס הוצאה לאור</t>
+          <t>תשס"ד 2004</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>חיפה : אמציה</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>990024868060205171,997012601826905171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990024868060205171</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21523941490005171</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -5244,35 +6049,40 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>158 עמודים : איורים (רובם צבעוניים) ; 18 ס"מ.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>19950101</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>תל אביב : מודן</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>990013330250205171</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -5281,27 +6091,72 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>הליגה להגנת הפליטים הערבים ולתמיכתם.</t>
+          <t>שרוטה / תמר ורטה-זהבי ; [עורכת הספר - דבורה נגבי].</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>נגבי-מנשהוף, דבורה  $$Qנגבי-מנשהוף, דבורה</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ARCHIVE_AL21265564680005171</t>
+          <t>NNL_ALEPH21246147440005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL21265564680005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246147440005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ורטה-זהבי, תמר, 1959- מחבר$$Qורטה-זהבי, תמר, 1959-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Children's stories, Israeli</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>145 עמודים ; 20 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19950101</t>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990035345850205171</t>
+          <t>990025706390205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -5333,35 +6188,45 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>172 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>20070101</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[תל אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>990025596970205171</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -5370,27 +6235,62 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>אהבה בין הדקלים</t>
+          <t>אהבה בין הדקלים / סמי מיכאל.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pressler, Mirjam  $$QPressler, Mirjam,Gal, Ana Maria  $$QGal, Ana Maria</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21269658370005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21269658370005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sami Michael$$QMichael, Sami</t>
+          <t>מיכאל, סמי, 1926-2024$$Qמיכאל, סמי, 1926-2024</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jewish teenagers -- Iraq -- Juvenile fiction; Dating (Social customs) -- Juvenile fiction; Antisemitism -- Iraq -- Juvenile fiction; Zionism -- Iraq -- Juvenile fiction; Israel -- Aliyah -- Juvenile fiction; Baghdad (Iraq) -- Juvenile fiction; Iraq -- History -- Hashemite Kingdom, 1921-1958 -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12451017470005171</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>224 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20030101</t>
+          <t>19910101</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ירושלים : דומינו</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990012580160205171</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -5407,107 +6307,142 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>בארמון מלך ההר</t>
+          <t>מלך ההר / נאוה מקמל-עתיר ; איורים - נורית צרפתי.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>יובל, נורית, 1940-  (מחבר)  $$Qיובל, נורית, 1940-</t>
+          <t>צרפתי, נורית, 1946-  $$Qצרפתי, נורית, 1946-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71441354750005171</t>
+          <t>NNL_ALEPH21231744110005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71441354750005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231744110005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>גריג, אדוארד, 1843-1907 מלחין$$Qגריג, אדוארד, 1843-1907</t>
+          <t>מקמל-עתיר, נאוה, 1964-$$Qמקמל-עתיר, נאוה, 1964-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century,Children's stories -- Translations into Hebrew</t>
+          <t>Children's stories, Hebrew -- 21st century</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>176 עמודים ; 8.,120 עמודים : איורים ; 21 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20040101,19790101</t>
+          <t>120 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>תל אביב : משכל,תל אביב : יזרעאל</t>
+          <t>20040101</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : משכל</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>997010567172805171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>990023613300205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>גבעת האיריסים השחורים / יצחק נוי.,גבעת האיריסים השחורים / יצחק נוי; קריינות: יצחק נוי.</t>
+          <t>גבעת האיריסים השחורים / יצחק נוי.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21247021620005171</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>נוי, יצחק, 1942-2022$$Qנוי, יצחק, 1942-2022,נוי, יצחק, 1942-2022 מחבר דובר$$Qנוי, יצחק, 1942-2022</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21247021620005171</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Children's literature, Hebrew; Children's literature, Israeli; Children's stories, Israeli; Israel -- Aliyah -- Juvenile fiction,Children's stories; Moshavim -- Juvenile fiction; Children's stories, Hebrew; Israel -- History -- Juvenile literature; Israel -- Aliyah -- Juvenile fiction</t>
+          <t>נוי, יצחק, 1942-2022$$Qנוי, יצחק, 1942-2022</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Children's stories, Israeli; Israel -- Aliyah -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19910101,20160101</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>תל אביב : iCast,ירושלים : כתר</t>
+          <t>245,[3] עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>[1984]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
+        <is>
+          <t>990009521530205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -5546,35 +6481,40 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>207 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>20070101</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[תל אביב] : הקיבוץ המאוחד, ספרית הפועלים</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>990025570740205171</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -5613,35 +6553,40 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>379, [1] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>20040101</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ירושלים : כתר</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>990023842840205171</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -5650,32 +6595,52 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>בורות</t>
+          <t>בורות / לואיס סצ'ר ; [תירגמה מאנגלית שלומית אפל].</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>אפפל, שולמית, 1948-  $$Qאפפל, שולמית, 1948-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21191315310005171</t>
+          <t>NNL_ALEPH21184350000005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21191315310005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21184350000005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>שמר, נעמי, 1930-2004 מלחין מחבר$$Qשמר, נעמי, 1930-2004</t>
+          <t>סצ'ר, לואיס, 1954-$$Qסצ'ר, לואיס, 1954-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Homeland in music; Love songs; Water -- Songs and music; Eretz Israel -- Songs and music</t>
+          <t>Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>178 עמודים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>תש"ס 1999</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -5685,71 +6650,126 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>990037146820205171</t>
+          <t>990019075620205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>אהבה ירושלמית</t>
+          <t>אהבה ירושלמית / אורית עוזיאל ; איורים - אבי כץ.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ekroni, Aviv  $$QEkroni, Aviv,בן-עוזר, יובל  (מנצח)  $$Qבן-עוזר, יובל</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21180656900005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21180656900005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>עוזיאל, אורית, 1952-$$Qעוזיאל, אורית, 1952-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Israeli literature -- Juvenile; Jerusalem (Israel) -- Juvenile literature,Hebrew poetry -- Translations into English</t>
+          <t>Israeli literature -- Juvenile; Jerusalem (Israel) -- Juvenile literature</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304069930005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12496984440005171</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>94, [2] עמודים : איורים, פורטרט (על הכריכה האחורית) ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>19930101,20110101</t>
+          <t>19930101</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[תל-אביב] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>eng;heb,heb</t>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990012568450205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>אהבת איתמר</t>
+          <t>אהבת איתמר / דבורה עומר.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ברק, דודו, 1948-  (מחבר)  $$Qברק, דודו, 1948-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21486961380005171</t>
+          <t>NNL_ALEPH21226882630005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21486961380005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21226882630005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>הירש, נורית, 1942- מלחין$$Qהירש, נורית, 1942-</t>
+          <t>עומר, דבורה, 1932-2013$$Qעומר, דבורה, 1932-2013</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Children's stories, Israeli</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE27522644</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5759,7 +6779,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19730101</t>
+          <t>תשס"א 2001</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5769,19 +6794,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>990047986250205171</t>
+          <t>990021289890205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>משפחת אברהם אבא הלל, אמא רשל, אח זאב, בת אסתר. בגב התמונה טקסט ביידיש הנכתב בתשכ"ד, שנת 1963, ערב יום כיפור.,אח זאב : דברי ימי האופל / מישל פייבר ; מאנגלית - עמירה שגב.</t>
+          <t>אח זאב : דברי ימי האופל / מישל פייבר ; מאנגלית - עמירה שגב.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5791,17 +6821,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21230464070005171,NNL_ARCHIVE_AL11415147180005171</t>
+          <t>NNL_ALEPH21230464070005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230464070005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL11415147180005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230464070005171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>פייבר, מישל, 1960-$$Qפייבר, מישל, 1960-,קריל דבורה ואברהם REI-PTA צלם</t>
+          <t>פייבר, מישל, 1960-$$Qפייבר, מישל, 1960-</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5811,7 +6841,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE44007479</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5836,12 +6866,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>990025412050205171,997009702598005171</t>
+          <t>990025412050205171</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>archive,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5853,94 +6883,59 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>סכנין 86 - לדו קיום ושלום.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>עלמ"א - עסקים עם אומנות $$Qעלמ"א - עסקים עם אומנות</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NNL_EPHEMERA11427522980005171</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11427522980005171</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Love songs</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE10513858</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>כר' ; 30 ס"מ.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>997002732940405171</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>sheet</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>The National Library of Israel</t>
+          <t>הבלדה על מרגרט לדו / פילד רייצ'ל</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> נאדיה</t>
+          <t>נאדיה : סיפורה של תלמידה ערביה / גלילה רון-פדר.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>מזרחי, יצחק BTLZMR  (מבצע)  $$Qמזרחי, יצחק BTLZMR</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429136730005171</t>
+          <t>NNL_ALEPH21286623190005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429136730005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21286623190005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>רון-פדר-עמית, גלילה, 1949-$$Qרון-פדר-עמית, גלילה, 1949-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mifleget ha-ʻavodah ha-Yiśreʼelit; Yom ha-zikaron le-ḥalale maʻarkhot Yiśraʼel; Peace-building -- Israel; Security, International -- Middle East; Equality -- Israel; Political parties -- Israel; Political candidates -- Israel; Propaganda -- Israel; Israel -- Politics and government</t>
+          <t>Teenagers, Palestinian Arab -- Israel -- Juvenile fiction; Jewish teenagers -- Israel -- Juvenile fiction; Boarding schools -- Juvenile fiction; Jewish-Arab relations -- Israel -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>158 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20060101</t>
+          <t>[תשמ"ה 1985]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>חיפה : אורין הוצאה לאור</t>
+          <t>[תל-אביב] : מלוא</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5950,12 +6945,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>997001764660405171</t>
+          <t>990010070000205171</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>sheet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5967,107 +6962,142 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>אליפים</t>
+          <t>כל הדברים, מבהיקים כיפים / ג'יימס הריוט ; מאנגלית - אברהם קדימה.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>קדימה, אברהם  $$Qקדימה, אברהם</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71441347250005171</t>
+          <t>NNL_ALEPH21262275190005171</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71441347250005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21262275190005171</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>כפן, גדעון, 1953- מלחין מחבר מבצע$$Qכפן, גדעון, 1953-</t>
+          <t>הריוט, ג'מס, 1916-1995$$Qהריוט, ג'מס, 1916-1995</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Animal behavior</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>368 עמודים : איורים ; 22 ס"מ.</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>347 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[תשמ"א 1981]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>תל אביב : זמורה, ביתן, מודן</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>997010566969005171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>reccomm</t>
+          <t>990018924310205171</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tōsan no tegami wa zenbu oboeta / Shem Tov Tami ; Motai Natsū.</t>
+          <t>ואיך קוראים לך עכשיו : Lieneke / תמי שם-טוב ; [עורכת הספר - יעל גובר ; תרגום מחורז למכתב השלישי - רימונה די-נור].</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>母袋夏生</t>
+          <t>גובר, יעל  $$Qגובר, יעל</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21479039510005171</t>
+          <t>NNL_ALEPH21176869700005171</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21479039510005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21176869700005171</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>שם טוב, תמי, 1969-$$Qשם טוב, תמי, 1969-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lieneke, 1933- -- Juvenile fiction; Van Der Hoeden, Jaacob -- Juvenile fiction; Lieneke, 1933- -- Correspondence; Van Der Hoeden, Jaacob -- Correspondence; Hebrew fiction -- Translations into Japanese; Holocaust, Jewish (1939-1945) -- Netherlands -- Juvenile fiction; Hidden children (Holocaust) -- Netherlands -- Juvenile fiction; Fathers and daughters -- Juvenile fiction; Holocaust, Jewish (1939-1945) -- Netherlands -- Personal narratives; Jewish children in the Holocaust -- Netherlands</t>
+          <t>Lieneke, 1933- -- Juvenile fiction; Van Der Hoeden, Jaacob -- Juvenile fiction; Lieneke, 1933- -- Correspondence; Van Der Hoeden, Jaacob -- Correspondence; גורן, נילי, 1933-; קולי, הנרי; הודן, יעקב ון דר, 1891-1968; Holocaust, Jewish (1939-1945) -- Netherlands -- Juvenile fiction; Hidden children (Holocaust) -- Netherlands -- Juvenile fiction; Fathers and daughters -- Juvenile fiction; Holocaust, Jewish (1939-1945) -- Netherlands -- Personal narratives; Jewish children in the Holocaust -- Netherlands</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>270 pages ; 21 cm</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20110101</t>
+          <t>274 עמודים : איורים, פורטרטים, פקסימילים צבעוניים ; 20 ס"מ.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tōkyō : Iwanamishoten</t>
+          <t>20070101</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>jpn</t>
+          <t>אור יהודה : דביר</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>997011345430105171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990025564730205171</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6197,30 +7227,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>273 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>תשס"ו 2006</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>תל אביב : אחוזת בית</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>990025418730205171</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6229,47 +7269,67 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Guang liang zai yuan fang = The lead soldiers / (yi)You li Ao lai fu zhu;Huang hua dan yi.</t>
+          <t>חיילי עופרת / אורי אורלב.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21508673440005171</t>
+          <t>NNL_ALEPH21285096730005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21508673440005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21285096730005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Uri Orlev 1931-2022 author$$QOrlev, Uri, 1931-2022</t>
+          <t>אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergen-Belsen (Concentration camp) -- Fiction; Holocaust, Jewish (1939-1945) -- Poland -- Warsaw -- Fiction; Jewish ghettos -- Poland -- Warsaw -- Fiction; Jewish children in the Holocaust -- Poland -- Fiction; Hidden children (Holocaust) -- Poland -- Fiction</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304190300005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>278 pages : illustrations ; 21cm.</t>
+          <t>211 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19890101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Lan zhou : Gan su shao nian er tong chu ban she</t>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>997012377473705171</t>
+          <t>990010888260205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6311,35 +7371,40 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>301 עמודים : איורים, פורטרטים ; 23 ס"מ.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>20060101</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>תל-אביב : קשת</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>990026251380205171</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6348,55 +7413,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>תמונות חתונה / גיל אילוטוביץ.,3 תמונות חתונה של עזרא והלנה רוטמן.</t>
+          <t>תמונות חתונה / גיל אילוטוביץ.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21188843800005171,NNL_ARCHIVE_AL71395894600005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188843800005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL71395894600005171</t>
+          <t>NNL_ALEPH21188843800005171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188843800005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>אילוטוביץ, גיל, 1965-$$Qאילוטוביץ, גיל, 1965-</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Anger -- Fiction; Holocaust survivors -- Fiction; Jews -- Belarus -- Fiction; Jews -- Belarus -- Lida -- Fiction; Man-woman relationships -- Fiction; Older people -- Fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>212 עמודים ; 19 ס"מ.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>תשס"ו 2006</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>תל אביב : עם עובד</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>990025246960205171,997009685518105171</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>archive,book</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990025246960205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6405,22 +7485,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>פרידה מברלין / (תירגם מאנגלית אמציה פורת).,פרידה מברלין / כריסטופר אישרווד ; מאנגלית - שאול לוין ; תרגום ותעתוק מגרמנית - חנה לבנת.</t>
+          <t>פרידה מברלין / כריסטופר אישרווד ; מאנגלית - שאול לוין ; תרגום ותעתוק מגרמנית - חנה לבנת.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>פורת, אמציה, 1932-2023  $$Qפורת, אמציה, 1932-2023,לוין, שאול (מתרגם)  $$Qלוין, שאול (מתרגם)</t>
+          <t>לוין, שאול (מתרגם)  $$Qלוין, שאול (מתרגם)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21270293990005171,NNL_ALEPH21184280260005171</t>
+          <t>NNL_ALEPH21270293990005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21184280260005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270293990005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270293990005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6435,35 +7515,40 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>191, [1] עמודים ; 19 ס"מ.,240 עמודים ; 21 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>240 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>20070101</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>אור יהודה : מחברות לספרות,תל אביב : עם עובד</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>heb</t>
+          <t>אור יהודה : מחברות לספרות</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>990025526410205171,990011794630205171</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990025526410205171</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6472,22 +7557,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>אודות הולדת ונוס : ציורו של סנדרו בוטיצ'לי.,הולדת ונוס / שרה דוננט ; מאנגלית - יעל אכמון.</t>
+          <t>הולדת ונוס / שרה דוננט ; מאנגלית - יעל אכמון.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>מרכז תרבות העמים לנוער (ירושלים) $$Qמרכז תרבות העמים לנוער (ירושלים),אכמון, יעל  $$Qאכמון, יעל</t>
+          <t>אכמון, יעל  $$Qאכמון, יעל</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21265884640005171,NNL_ALEPH21184061850005171</t>
+          <t>NNL_ALEPH21265884640005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21184061850005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265884640005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265884640005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6497,7 +7582,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>בוטיצ'לי, סנדרו, 1444‏ או 1445-‏1510. הולדת ונוס; Painting -- Italy,Arranged marriage -- Fiction; Married women -- Fiction; Painters -- Fiction; Teenage girls -- Fiction; Women painters -- Fiction; Florence (Italy) -- History -- 1421-1737 -- Fiction</t>
+          <t>Arranged marriage -- Fiction; Married women -- Fiction; Painters -- Fiction; Teenage girls -- Fiction; Women painters -- Fiction; Florence (Italy) -- History -- 1421-1737 -- Fiction</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6507,7 +7592,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>398 עמודים ; 21 ס"מ.,13 עמודים : איורים ; 25 ס"מ.</t>
+          <t>398 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6517,7 +7602,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ירושלים : מרכז תרבות עמים לנוער בירושלים,אור יהודה : כנרת, זמורה-ביתן</t>
+          <t>אור יהודה : כנרת, זמורה-ביתן</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -6527,7 +7612,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990025487710205171,990023498830205171</t>
+          <t>990025487710205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -6537,7 +7622,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21265884640005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21265884640005171</t>
         </is>
       </c>
     </row>
@@ -6549,7 +7634,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>לפידות, נועה, 1987-  (דובר)  $$Qלפידות, נועה, 1987-,Enoch, Yael  $$QEnoch, Yael</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6567,6 +7652,11 @@
           <t>דורון, ליזי מחבר$$Qדורון, ליזי</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Short stories, Hebrew; Mothers and daughters -- Israel -- Fiction; Children of Holocaust survivors -- Israel -- Fiction; Holocaust survivors -- Fiction; Israel -- Social life and customs -- 20th century -- Fiction</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305102790005171</t>
@@ -6579,7 +7669,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>תשנ"ח 1998</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -6599,7 +7689,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21284712320005171</t>
         </is>
       </c>
     </row>
@@ -6636,35 +7731,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>441 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>20070101</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>תל-אביב : משכל</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>990025721100205171</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6703,35 +7803,40 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>286, [1] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>20060101</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>אור יהודה : כנרת</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>990025430500205171</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6740,52 +7845,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>השיבה מהודו (כתב יד).</t>
+          <t>השיבה מהודו : רומאן בארבעה חלקים / אברהם ב. יהושע.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>גולן, מנחם, 1929-2014.  $$Qגולן, מנחם, 1929-2014.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL21293336950005171</t>
+          <t>NNL_ALEPH21278532800005171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL21293336950005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21278532800005171</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>זלצר, דובי, 1932- מלחין$$Qזלצר, דובי, 1932-</t>
+          <t>יהושע, א.ב. (אברהם ב.), 1936-2022$$Qיהושע, א.ב. 1936-2022</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>יהושע, א.ב. (אברהם ב.), 1936-2022; Motion picture music</t>
+          <t>Israelis -- Travel -- India -- Fiction; Parent and child -- Fiction; Travel -- India -- Fiction; Physicians -- Israel -- Fiction; Man-woman relationships -- Fiction; Israel -- Social life and customs -- 20th century -- Fiction; India -- Social life and customs -- 20th century -- Fiction</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE196304215</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7 דפים..</t>
+          <t>446 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20010101</t>
+          <t>תשנ"ד 1994</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>נתניה : גלובוס יונייטד</t>
+          <t>תל אביב : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -6795,54 +7900,89 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>990040891620205171</t>
+          <t>990012965190205171</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>score_manuscript</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>עם כלביא</t>
+          <t>עם כלביא / נפתלי לאו-לביא.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>גזית, שלמה, 1926-2020  $$Qגזית, שלמה, 1926-2020</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21173512890005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173512890005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>גבעון, אורי, 1912-1974 מלחין$$Qגבעון, אורי, 1912-1974</t>
+          <t>לאו-לביא, נפתלי, 1926-2014$$Qלאו-לביא, נפתלי, 1926-2014</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Israel. Tseva haganah le-Yiśraʼel -- History -- 20th century; Israel-Arab Border Conflicts, 1949-; Arab-Israeli conflict -- 20th century; Israel -- History, Military -- 20th century</t>
+          <t>Diplomats -- Israel -- Biography; Holocaust, Jewish (1939-1945) -- Personal narratives; Jewish children in the Holocaust -- Biography; Journalists -- Israel -- Biography; Statesmen -- Israel -- Biography; Israel -- Foreign relations</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE9698572</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303689300005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>כולל תצלום..</t>
+          <t>448 עמודים, [16] דפי-לוחות : פורטרטים, פקסימיל ; 24 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19800101</t>
+          <t>תשנ"ג 1993</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>תל אביב : ספרית מעריב</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990012789650205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21173512890005171</t>
         </is>
       </c>
     </row>
@@ -6854,55 +7994,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NNL_ALEPH21249508070005171</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21249508070005171</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>ליברכט, סביון, 1948-$$Qליברכט, סביון, 1948-</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Foreign workers -- Israel -- Fiction; Women -- Fiction</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>206 עמודים ; 22 ס"מ.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>20000101</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ירושלים : כתר</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>990019462160205171</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -6911,22 +8061,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>מה קורא? סופרים בשיחה אישית על ארון הספרים הפרטי / אשכול נבו ויובל אביבי.</t>
+          <t>ארבעה בתים וגעגוע / אשכול נבו.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NNL_ALEPH51530810850005171</t>
+          <t>NNL_ALEPH21183326640005171</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH51530810850005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21183326640005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>נבו, אשכול, 1971-$$Qנבו, אשכול, 1971-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>הספרייה הלאומית</t>
+          <t>Home -- Psychological aspects -- Fiction; Interpersonal relations -- Fiction; Jewish-Arab relations -- Israel -- Fiction; Israel -- Social life and customs -- 1993- -- Fiction</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -6936,12 +8096,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1 וידאו (00:52:40).</t>
+          <t>361, [1] עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>תשס"ד 2004</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[ירושלים] : הספרייה הלאומית</t>
+          <t>אור יהודה : זמורה-ביתן</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -6951,12 +8116,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>997012740491805171</t>
+          <t>990023771150205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21183326640005171,The National Library of Israel</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21183326640005171</t>
         </is>
       </c>
     </row>
@@ -6993,35 +8163,40 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>318 עמודים : מפות ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>20050101</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>תל אביב : משכל</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>990024850480205171</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7060,30 +8235,40 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>347 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>תל אביב : אחוזת בית</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>heb</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>990025633310205171</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7092,37 +8277,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>נערת הרוק .[דף שיר].</t>
+          <t>קופסה שחורה / עמוס עוז.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>לאור, יצחק, 1948-  (מחבר)  $$Qלאור, יצחק, 1948-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_MUSIC_AL71339922820005171</t>
+          <t>NNL_ALEPH21254785100005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_MUSIC_AL71339922820005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21254785100005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>עוז, עמוס, 1939-2018$$Qעוז, עמוס, 1939-2018</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>עוז, עמוס, 1939-2018. קופסה שחורה; Hebrew fiction -- History and criticism; Epistolary fiction</t>
+          <t>Families -- Israel -- Fiction; Israelis -- Attitudes -- Fiction; Man-woman relationships -- Fiction; Men -- Fiction; Epistolary fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303852330005171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1 מקור מקוון..</t>
+          <t>230 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>19960101</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ישראל : מוציא לאור לא ידוע</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -7132,19 +8332,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>997008580377205171</t>
+          <t>990013742400205171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>The National Library of Israel - Music Library</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21254785100005171</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>אנשי המשמר</t>
+          <t>אנשי המשמר / טרי פראצ'ט ; מאנגלית - יעל רנן.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7152,6 +8357,16 @@
           <t>רנן, יעל, 1947-2020  $$Qרנן, יעל, 1947-2020</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21265732940005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265732940005171</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>פראצ'ט, טרי, 1948-2015$$Qפראצ'ט, טרי, 1948-2015</t>
@@ -7164,7 +8379,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE38534971,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE44650458</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7185,6 +8400,16 @@
       <c r="K18" t="inlineStr">
         <is>
           <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990025263460205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7196,30 +8421,70 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>האשה בלבן</t>
+          <t>האישה בלבן / וילקי קולינס ; תירגמה מאנגלית והוסיפה הערות צילה אלעזר ; מבוא מאת אמנון ז'קונט.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>לבנון, יצחק, 1914-2007  $$Qלבנון, יצחק, 1914-2007,אלעזר, צילה  $$Qאלעזר, צילה</t>
+          <t>אלעזר, צילה  $$Qאלעזר, צילה</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21265897690005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265897690005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>קולינס, וילקי, 1824-1889$$Qקולינס, וילקי, 1824-1889</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>English fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>20090101</t>
+          <t>672 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>תל אביב : אחוזת בית</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>heb</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990025488220205171</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7228,17 +8493,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>מלחמת השוקולד</t>
+          <t>מלחמת השוקולד / רוברט קורמייר ; מאנגלית - אליענה אלמוג.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ישראל, גלעד  (מאייר)  $$Qישראל, גלעד,אלמוג, אליענה, 1972-  $$Qאלמוג, אליענה, 1972-</t>
+          <t>אלמוג, אליענה, 1972-  $$Qאלמוג, אליענה, 1972-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21167537000005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167537000005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>קורמיר, רוברט, 1925-2000$$Qקורמיר, רוברט, 1925-2000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302432420005171</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>220, [2] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -7246,46 +8536,96 @@
           <t>20060101</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>heb</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990025370080205171</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>אל החרדונים</t>
+          <t>אל החרדונים / אברם קנטור ; [עורכת - דורית פרידמן].</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>פרידמן, דורית  $$Qפרידמן, דורית,Pressler, Mirjam  $$QPressler, Mirjam</t>
+          <t>פרידמן, דורית  $$Qפרידמן, דורית</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21236094990005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21236094990005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>קנטור, אברם, 1950-$$Qקנטור, אברם, 1950-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Holocaust survivors -- Israel -- Fiction; Holocaust survivors -- Family relationships -- Fiction; Children of Holocaust survivors -- Germany -- Fiction</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE37259687</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>214 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>214 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20140101</t>
+          <t>תשס"ו 2006</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>בני ברק : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>990025422540205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7297,20 +8637,70 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>מגדלורים של יבשה</t>
+          <t>מגדלורים של יבשה : שלושה סיפורי מסע / יהודית קציר.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Linner, Barbara, 1955-  (translator)  $$QLinner, Barbara, 1955-</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21242926410005171</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21242926410005171</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>קציר, יהודית, 1963-$$Qקציר, יהודית, 1963-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Short stories, Hebrew; Families -- Israel -- Fiction; Israel -- Social life and customs -- 20th century -- Fiction</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>192 עמודים : פורטרט, פקסימילים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>תשנ"ט 1999</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>בני ברק : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>heb</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>990020727920205171</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>The National Library of Israel</t>
         </is>
@@ -7319,47 +8709,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>במערב אין כל חדש.</t>
+          <t>במערב אין כל חדש / אריך מריה רמרק ; מגרמנית - צבי ארד.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>גולדברג, גדי, 1972-  (מתרגם מחבר אחרית דבר)  $$Qגולדברג, גדי, 1972-</t>
+          <t>ארד, צבי, 1909-1994  (מתרגם)  $$Qארד, צבי, 1909-1994</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NNL_EPHEMERA11429245590005171</t>
+          <t>NNL_ALEPH21294942850005171</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_EPHEMERA11429245590005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21294942850005171</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>רמרק, אריך מריה, 1898-1970 מחבר$$Qרמרק, אריך מריה, 1898-1970</t>
+          <t>רמרק, אריך מריה, 1898-1970$$Qרמרק, אריך מריה, 1898-1970</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>German fiction -- Translations into Hebrew; World War, 1914-1918 -- Fiction</t>
+          <t>German literature</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>204 עמודים ; 21 ס"מ</t>
+          <t>180 עמודים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19320101</t>
+          <t>[תשמ"ב 1982]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>חבל מודיעין : הוצאת מחברות לספרות</t>
+          <t>[תל-אביב] : זמורה-ביתן</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -7369,7 +8764,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>997001751050405171</t>
+          <t>990008846510205171</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -7404,6 +8809,11 @@
           <t>Families -- Fiction; New towns -- Israel -- Fiction; Ma'alot-Tarshiha (Israel) -- Fiction</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302727320005171</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>254 עמודים ; 19 ס"מ.</t>
@@ -7411,7 +8821,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20110101</t>
+          <t>תשס"ו 2006</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -7431,7 +8841,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>audio,book</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
